--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181555.9046984813</v>
+        <v>171545.4618034009</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14857516.42777936</v>
+        <v>14857516.42777935</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3558719.119441657</v>
+        <v>3558719.119441658</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="H2" t="n">
-        <v>5.570955460676488</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.26683315033813</v>
+        <v>18.68867339138394</v>
       </c>
       <c r="J2" t="n">
-        <v>13.11771793070574</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.26683315033813</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>31.26683315033813</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>27.53982663881849</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.244671795650852</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="S3" t="n">
-        <v>31.26683315033813</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.29515484316698</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.52930446208639</v>
+        <v>33.05581137020575</v>
       </c>
       <c r="C5" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.579696329610442</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23.47611504059524</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>27.24700216000358</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1019,25 +1019,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R6" t="n">
-        <v>34.25063875717579</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="T6" t="n">
-        <v>36.33447707511626</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>37.52930446208639</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>40.45816317064455</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.322714328675374</v>
+        <v>6.322714328675332</v>
       </c>
       <c r="R8" t="n">
-        <v>38.61802642167719</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>45.40562735059398</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>45.40562735059398</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>33.6705622417279</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.744561450433944</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="G9" t="n">
-        <v>45.40562735059398</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="H9" t="n">
-        <v>45.40562735059398</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.24871511996929</v>
+        <v>33.24871511996928</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.744561450433859</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.40562735059398</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.468277882965413</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.468277882965447</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>96.78758242229657</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.6611109895199</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>105.1765168157536</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>129.6019347520669</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>26.2667358705163</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>193.3854158231843</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>219.5565574740966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>56.7188992051642</v>
       </c>
       <c r="U15" t="n">
-        <v>93.54188491598708</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>94.78855424673405</v>
+        <v>17.55899135242027</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.43258009724632</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="D17" t="n">
-        <v>193.3854158231841</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E17" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>129.204604649252</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>34.63727698076217</v>
       </c>
     </row>
     <row r="19">
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.2211343439798</v>
       </c>
       <c r="V19" t="n">
-        <v>191.2211343439802</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380174</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="X20" t="n">
-        <v>59.22911908072508</v>
+        <v>199.0421087209539</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>147.3083566130749</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>33.08759864924562</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5.398425013875849</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>191.2211343439802</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>353.3476093463711</v>
       </c>
       <c r="H23" t="n">
-        <v>259.2598636328626</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>132.6551205385437</v>
@@ -2405,16 +2405,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>37.64843842388991</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
-        <v>195.2992474636072</v>
+        <v>39.5091026574712</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>264.5539824275544</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>264.5539824275544</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>50.40073162392527</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>210.675996984614</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7337711575492</v>
+        <v>104.3755284862519</v>
       </c>
       <c r="H27" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
-        <v>54.04893327214926</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
@@ -2702,7 +2702,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>135.6041455328067</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>228.8548805014684</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>11.19522873935362</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>51.50353234606801</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>63.92409583356882</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.1781187593484</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>234.399523135381</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>58.52595441585438</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>68.50412492458062</v>
+        <v>34.08873677909637</v>
       </c>
       <c r="U33" t="n">
         <v>195.2992474636072</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>73.95011212533082</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>135.1572311320988</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>320.6465693450583</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T35" t="n">
-        <v>210.2775313912475</v>
+        <v>141.7700565790588</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3350,10 +3350,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0.410366858644201</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>113.6597980399019</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.88166847950853</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9159111551209</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>320.5090912079609</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>108.4043155504821</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>49.35412217226675</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>37.64843842388991</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U39" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>125.2861381321921</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.4957219934231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>133.2357583794278</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>208.2032531237193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,22 +3821,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T42" t="n">
-        <v>85.43105926032281</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>185.1189524228343</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>64.65637625382709</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>28.59355890864108</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>56.82303174544658</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>43.84904344385946</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -4070,7 +4070,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>22.06468129387058</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>151.8743432896955</v>
       </c>
       <c r="U45" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>68.86499572513522</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H46" t="n">
-        <v>64.95762142958769</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I46" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.96145426992641</v>
+        <v>116.126773765563</v>
       </c>
       <c r="C2" t="n">
-        <v>52.96145426992641</v>
+        <v>84.544114017746</v>
       </c>
       <c r="D2" t="n">
-        <v>52.96145426992641</v>
+        <v>84.544114017746</v>
       </c>
       <c r="E2" t="n">
-        <v>52.96145426992641</v>
+        <v>84.544114017746</v>
       </c>
       <c r="F2" t="n">
-        <v>52.96145426992641</v>
+        <v>52.96145426992895</v>
       </c>
       <c r="G2" t="n">
-        <v>52.96145426992641</v>
+        <v>21.3787945221119</v>
       </c>
       <c r="H2" t="n">
-        <v>47.33422653186935</v>
+        <v>21.3787945221119</v>
       </c>
       <c r="I2" t="n">
-        <v>15.75156678405305</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="J2" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="K2" t="n">
-        <v>3.586988368705732</v>
+        <v>3.586988368706326</v>
       </c>
       <c r="L2" t="n">
-        <v>19.8790364697184</v>
+        <v>19.87903646971965</v>
       </c>
       <c r="M2" t="n">
-        <v>50.83320128855315</v>
+        <v>50.83320128855514</v>
       </c>
       <c r="N2" t="n">
-        <v>81.7873661073879</v>
+        <v>81.78736610739064</v>
       </c>
       <c r="O2" t="n">
-        <v>107.8531422385408</v>
+        <v>107.8531422385443</v>
       </c>
       <c r="P2" t="n">
-        <v>116.126773765559</v>
+        <v>116.126773765563</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.126773765559</v>
+        <v>116.126773765563</v>
       </c>
       <c r="R2" t="n">
-        <v>116.126773765559</v>
+        <v>116.126773765563</v>
       </c>
       <c r="S2" t="n">
-        <v>116.126773765559</v>
+        <v>116.126773765563</v>
       </c>
       <c r="T2" t="n">
-        <v>84.5441140177427</v>
+        <v>116.126773765563</v>
       </c>
       <c r="U2" t="n">
-        <v>52.96145426992641</v>
+        <v>116.126773765563</v>
       </c>
       <c r="V2" t="n">
-        <v>52.96145426992641</v>
+        <v>116.126773765563</v>
       </c>
       <c r="W2" t="n">
-        <v>52.96145426992641</v>
+        <v>116.126773765563</v>
       </c>
       <c r="X2" t="n">
-        <v>52.96145426992641</v>
+        <v>116.126773765563</v>
       </c>
       <c r="Y2" t="n">
-        <v>52.96145426992641</v>
+        <v>116.126773765563</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.501346652027051</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="C3" t="n">
-        <v>2.501346652027051</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="D3" t="n">
-        <v>2.501346652027051</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="E3" t="n">
-        <v>2.501346652027051</v>
+        <v>34.08400639984416</v>
       </c>
       <c r="F3" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="G3" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="H3" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="I3" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="J3" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="K3" t="n">
-        <v>7.908332877646761</v>
+        <v>7.90833287764718</v>
       </c>
       <c r="L3" t="n">
-        <v>33.93932228937438</v>
+        <v>32.20483814484903</v>
       </c>
       <c r="M3" t="n">
-        <v>64.89348710820913</v>
+        <v>63.15900296368453</v>
       </c>
       <c r="N3" t="n">
-        <v>76.07946987721297</v>
+        <v>94.11316778252002</v>
       </c>
       <c r="O3" t="n">
-        <v>107.0336346960477</v>
+        <v>125.0673326013555</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0673326013525</v>
+        <v>125.0673326013555</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.7393812926143</v>
+        <v>125.0673326013555</v>
       </c>
       <c r="R3" t="n">
-        <v>85.156721544798</v>
+        <v>93.48467285353847</v>
       </c>
       <c r="S3" t="n">
-        <v>53.57406179698171</v>
+        <v>93.48467285353847</v>
       </c>
       <c r="T3" t="n">
-        <v>21.99140204916541</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="U3" t="n">
-        <v>21.99140204916541</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="V3" t="n">
-        <v>21.99140204916541</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="W3" t="n">
-        <v>21.99140204916541</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="X3" t="n">
-        <v>2.501346652027051</v>
+        <v>61.90201310572142</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.501346652027051</v>
+        <v>61.90201310572142</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="D4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="E4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="F4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="G4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="H4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="I4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="J4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="K4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="L4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="M4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="N4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="O4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="P4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="R4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="S4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="T4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="U4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="V4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="W4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="X4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.501346652027051</v>
+        <v>2.50134665202711</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.91073270250872</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="C5" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="D5" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="E5" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="F5" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="G5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J5" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K5" t="n">
-        <v>8.579347327526861</v>
+        <v>8.579347327526918</v>
       </c>
       <c r="L5" t="n">
-        <v>30.44332621730852</v>
+        <v>30.44332621730853</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477405</v>
+        <v>67.59733763477414</v>
       </c>
       <c r="N5" t="n">
-        <v>104.7513490522396</v>
+        <v>104.7513490522398</v>
       </c>
       <c r="O5" t="n">
-        <v>136.7661938505103</v>
+        <v>136.7661938505106</v>
       </c>
       <c r="P5" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q5" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="R5" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="S5" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="T5" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="U5" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="V5" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="W5" t="n">
-        <v>140.4407569093451</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="X5" t="n">
-        <v>116.7275093935923</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.81912104805053</v>
+        <v>112.208829502804</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="C6" t="n">
-        <v>3.002344356966911</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="D6" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="E6" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="F6" t="n">
-        <v>3.002344356966911</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="G6" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H6" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I6" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J6" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K6" t="n">
-        <v>11.4599195490647</v>
+        <v>11.45991954906474</v>
       </c>
       <c r="L6" t="n">
-        <v>41.59280229228314</v>
+        <v>17.44797966023127</v>
       </c>
       <c r="M6" t="n">
-        <v>54.60199107769674</v>
+        <v>54.60199107769687</v>
       </c>
       <c r="N6" t="n">
-        <v>91.75600249516226</v>
+        <v>91.75600249516246</v>
       </c>
       <c r="O6" t="n">
-        <v>128.4760412668172</v>
+        <v>128.4760412668174</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1172178483455</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.1172178483455</v>
+        <v>144.2497337976366</v>
       </c>
       <c r="R6" t="n">
-        <v>115.5206130431175</v>
+        <v>144.2497337976366</v>
       </c>
       <c r="S6" t="n">
-        <v>115.5206130431175</v>
+        <v>106.3413454520947</v>
       </c>
       <c r="T6" t="n">
-        <v>78.81912104805053</v>
+        <v>106.3413454520947</v>
       </c>
       <c r="U6" t="n">
-        <v>78.81912104805053</v>
+        <v>106.3413454520947</v>
       </c>
       <c r="V6" t="n">
-        <v>40.91073270250872</v>
+        <v>106.3413454520947</v>
       </c>
       <c r="W6" t="n">
-        <v>3.002344356966911</v>
+        <v>106.3413454520947</v>
       </c>
       <c r="X6" t="n">
-        <v>3.002344356966911</v>
+        <v>106.3413454520947</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.002344356966911</v>
+        <v>106.3413454520947</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="C7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="D7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="E7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="F7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="K7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="L7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="M7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="N7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="O7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="P7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="R7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="S7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="T7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="U7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="V7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="W7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="X7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.002344356966911</v>
+        <v>3.002344356966917</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.49928167354707</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="C8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="D8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="E8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="F8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="G8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="J8" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="K8" t="n">
-        <v>13.00760177093451</v>
+        <v>13.00760177093454</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58351986958218</v>
+        <v>39.58351986958228</v>
       </c>
       <c r="M8" t="n">
-        <v>81.98047155039906</v>
+        <v>81.98047155039912</v>
       </c>
       <c r="N8" t="n">
-        <v>126.9320426274871</v>
+        <v>126.9320426274872</v>
       </c>
       <c r="O8" t="n">
-        <v>163.97775571388</v>
+        <v>163.9777557138802</v>
       </c>
       <c r="P8" t="n">
-        <v>181.6225094023759</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="Q8" t="n">
-        <v>175.2359292724008</v>
+        <v>175.2359292724012</v>
       </c>
       <c r="R8" t="n">
-        <v>136.2278217757571</v>
+        <v>175.2359292724012</v>
       </c>
       <c r="S8" t="n">
-        <v>90.36355172465211</v>
+        <v>175.2359292724012</v>
       </c>
       <c r="T8" t="n">
-        <v>44.49928167354707</v>
+        <v>175.2359292724012</v>
       </c>
       <c r="U8" t="n">
-        <v>44.49928167354707</v>
+        <v>129.3716592212961</v>
       </c>
       <c r="V8" t="n">
-        <v>44.49928167354707</v>
+        <v>83.50738917019093</v>
       </c>
       <c r="W8" t="n">
-        <v>44.49928167354707</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="X8" t="n">
-        <v>44.49928167354707</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.49928167354707</v>
+        <v>3.632450188047526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.3609902902576</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="C9" t="n">
-        <v>95.3609902902576</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="D9" t="n">
-        <v>95.3609902902576</v>
+        <v>141.2252603413629</v>
       </c>
       <c r="E9" t="n">
-        <v>95.3609902902576</v>
+        <v>95.36099029025777</v>
       </c>
       <c r="F9" t="n">
-        <v>95.3609902902576</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="G9" t="n">
-        <v>49.49672023915256</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H9" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I9" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="J9" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="K9" t="n">
-        <v>14.66977561506488</v>
+        <v>14.66977561506492</v>
       </c>
       <c r="L9" t="n">
-        <v>48.27145091008529</v>
+        <v>48.27145091008538</v>
       </c>
       <c r="M9" t="n">
-        <v>93.22302198717333</v>
+        <v>93.2230219871735</v>
       </c>
       <c r="N9" t="n">
-        <v>116.4095441314478</v>
+        <v>138.1745930642616</v>
       </c>
       <c r="O9" t="n">
-        <v>156.930645211104</v>
+        <v>178.6956941439178</v>
       </c>
       <c r="P9" t="n">
-        <v>181.6225094023759</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.6225094023759</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="R9" t="n">
-        <v>148.0379486751342</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="S9" t="n">
-        <v>148.0379486751342</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="T9" t="n">
-        <v>148.0379486751342</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="U9" t="n">
-        <v>141.2252603413626</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="V9" t="n">
-        <v>95.3609902902576</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="W9" t="n">
-        <v>95.3609902902576</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="X9" t="n">
-        <v>95.3609902902576</v>
+        <v>148.0379486751346</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.3609902902576</v>
+        <v>148.0379486751346</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="C10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="D10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="E10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="F10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="G10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="J10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="K10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="L10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="M10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="N10" t="n">
-        <v>5.115559160739855</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="O10" t="n">
-        <v>3.632450188047518</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="P10" t="n">
-        <v>3.632450188047518</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.632450188047518</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="R10" t="n">
-        <v>3.632450188047518</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="S10" t="n">
-        <v>3.632450188047518</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="T10" t="n">
-        <v>3.632450188047518</v>
+        <v>5.115559160739896</v>
       </c>
       <c r="U10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="V10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="W10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="X10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.632450188047518</v>
+        <v>3.632450188047526</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>715.1114365838774</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="C11" t="n">
-        <v>715.1114365838774</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="D11" t="n">
-        <v>715.1114365838774</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="E11" t="n">
-        <v>715.1114365838774</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="F11" t="n">
-        <v>493.3371361049924</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="G11" t="n">
-        <v>271.5628356261074</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H11" t="n">
-        <v>49.78853514722242</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I11" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422702</v>
+        <v>61.76566646422704</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474253</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723309</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M11" t="n">
         <v>420.4501281543859</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547428</v>
+        <v>574.0010487547427</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809668</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P11" t="n">
         <v>818.7605380598412</v>
@@ -5065,28 +5065,28 @@
         <v>878.2262298963847</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947107</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963846</v>
+        <v>558.8783603256943</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963846</v>
+        <v>558.8783603256943</v>
       </c>
       <c r="V11" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="W11" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="Y11" t="n">
-        <v>878.2262298963846</v>
+        <v>239.3388250768127</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>247.6130924813508</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="C12" t="n">
-        <v>247.6130924813508</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="D12" t="n">
-        <v>247.6130924813508</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="E12" t="n">
-        <v>247.6130924813508</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="F12" t="n">
-        <v>138.6532126638554</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G12" t="n">
-        <v>32.41430678935676</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H12" t="n">
-        <v>32.41430678935676</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I12" t="n">
         <v>17.56452459792769</v>
@@ -5144,28 +5144,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R12" t="n">
-        <v>715.3219541700623</v>
+        <v>702.3665110839293</v>
       </c>
       <c r="S12" t="n">
-        <v>715.3219541700623</v>
+        <v>608.329838238913</v>
       </c>
       <c r="T12" t="n">
-        <v>715.3219541700623</v>
+        <v>452.0158650375812</v>
       </c>
       <c r="U12" t="n">
-        <v>715.3219541700623</v>
+        <v>254.7144756765343</v>
       </c>
       <c r="V12" t="n">
-        <v>715.3219541700623</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="W12" t="n">
-        <v>715.3219541700623</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="X12" t="n">
-        <v>538.9959723089551</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="Y12" t="n">
-        <v>379.5940126727851</v>
+        <v>123.8034304724263</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="E13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="F13" t="n">
-        <v>17.56452459792769</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G13" t="n">
         <v>17.56452459792769</v>
@@ -5229,22 +5229,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>461.1131255556988</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="C14" t="n">
-        <v>461.1131255556988</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="D14" t="n">
-        <v>461.1131255556988</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="E14" t="n">
-        <v>239.3388250768133</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="F14" t="n">
-        <v>17.56452459792773</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="G14" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H14" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J14" t="n">
-        <v>61.76566646422737</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K14" t="n">
-        <v>148.5608200474256</v>
+        <v>148.560820047425</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723314</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543866</v>
+        <v>420.4501281543854</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547439</v>
+        <v>574.0010487547423</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809682</v>
+        <v>713.5940480809663</v>
       </c>
       <c r="P14" t="n">
-        <v>818.7605380598429</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="S14" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="T14" t="n">
-        <v>878.2262298963866</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="U14" t="n">
-        <v>878.2262298963866</v>
+        <v>656.4519294174996</v>
       </c>
       <c r="V14" t="n">
-        <v>878.2262298963866</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="W14" t="n">
-        <v>878.2262298963866</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="X14" t="n">
-        <v>878.2262298963866</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="Y14" t="n">
-        <v>656.4519294175011</v>
+        <v>239.3388250768127</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.56452459792773</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="C15" t="n">
-        <v>17.56452459792773</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="D15" t="n">
-        <v>17.56452459792773</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="E15" t="n">
-        <v>17.56452459792773</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J15" t="n">
-        <v>36.2691938677775</v>
+        <v>36.26919386777739</v>
       </c>
       <c r="K15" t="n">
-        <v>99.89115689943327</v>
+        <v>99.89115689943301</v>
       </c>
       <c r="L15" t="n">
-        <v>204.1993668012284</v>
+        <v>204.1993668012279</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7616594659748</v>
+        <v>333.7616594659742</v>
       </c>
       <c r="N15" t="n">
-        <v>472.5885816838008</v>
+        <v>472.5885816837999</v>
       </c>
       <c r="O15" t="n">
-        <v>590.5890764169002</v>
+        <v>590.589076416899</v>
       </c>
       <c r="P15" t="n">
-        <v>677.4649847190651</v>
+        <v>677.4649847190638</v>
       </c>
       <c r="Q15" t="n">
-        <v>715.3219541700633</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="R15" t="n">
-        <v>715.3219541700633</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="S15" t="n">
-        <v>715.3219541700633</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="T15" t="n">
-        <v>715.3219541700633</v>
+        <v>658.0301367911081</v>
       </c>
       <c r="U15" t="n">
-        <v>620.8352017296723</v>
+        <v>460.7287474300613</v>
       </c>
       <c r="V15" t="n">
-        <v>407.1236747227062</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="W15" t="n">
-        <v>193.890506459035</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="X15" t="n">
-        <v>17.56452459792773</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.56452459792773</v>
+        <v>247.0172204230951</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="C16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="D16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J16" t="n">
-        <v>17.56452459792773</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K16" t="n">
-        <v>37.5503278868253</v>
+        <v>37.55032788682517</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476737</v>
+        <v>75.23712329476713</v>
       </c>
       <c r="M16" t="n">
-        <v>116.2921695945573</v>
+        <v>116.2921695945569</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5533166477876</v>
+        <v>159.5533166477871</v>
       </c>
       <c r="O16" t="n">
-        <v>191.2851869593637</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P16" t="n">
-        <v>210.7171855514433</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.7171855514433</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="R16" t="n">
-        <v>210.7171855514433</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="S16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="T16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="U16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="V16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="W16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="X16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.7171855514433</v>
+        <v>35.30087949936231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>878.2262298963859</v>
+        <v>656.4519294174994</v>
       </c>
       <c r="C17" t="n">
-        <v>878.2262298963859</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="D17" t="n">
-        <v>682.8874260345838</v>
+        <v>239.3388250768126</v>
       </c>
       <c r="E17" t="n">
-        <v>461.1131255556984</v>
+        <v>239.3388250768126</v>
       </c>
       <c r="F17" t="n">
-        <v>239.3388250768131</v>
+        <v>239.3388250768126</v>
       </c>
       <c r="G17" t="n">
-        <v>17.56452459792772</v>
+        <v>239.3388250768126</v>
       </c>
       <c r="H17" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I17" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422714</v>
+        <v>61.7656664642268</v>
       </c>
       <c r="K17" t="n">
-        <v>148.5608200474254</v>
+        <v>148.560820047425</v>
       </c>
       <c r="L17" t="n">
-        <v>271.183096572331</v>
+        <v>271.1830965723304</v>
       </c>
       <c r="M17" t="n">
-        <v>420.4501281543862</v>
+        <v>420.4501281543854</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547432</v>
+        <v>574.0010487547422</v>
       </c>
       <c r="O17" t="n">
-        <v>713.5940480809674</v>
+        <v>713.5940480809661</v>
       </c>
       <c r="P17" t="n">
-        <v>818.760538059842</v>
+        <v>818.7605380598409</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963843</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963843</v>
       </c>
       <c r="S17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963843</v>
       </c>
       <c r="T17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963843</v>
       </c>
       <c r="U17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963843</v>
       </c>
       <c r="V17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963843</v>
       </c>
       <c r="W17" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963843</v>
       </c>
       <c r="X17" t="n">
-        <v>878.2262298963859</v>
+        <v>656.4519294174994</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2262298963859</v>
+        <v>656.4519294174994</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>148.0742262638388</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="C18" t="n">
-        <v>17.56452459792772</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="D18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I18" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J18" t="n">
-        <v>36.26919386777747</v>
+        <v>36.26919386777738</v>
       </c>
       <c r="K18" t="n">
-        <v>99.89115689943321</v>
+        <v>99.89115689943301</v>
       </c>
       <c r="L18" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012279</v>
       </c>
       <c r="M18" t="n">
-        <v>333.7616594659747</v>
+        <v>333.7616594659742</v>
       </c>
       <c r="N18" t="n">
-        <v>472.5885816838006</v>
+        <v>472.5885816837999</v>
       </c>
       <c r="O18" t="n">
-        <v>590.5890764169</v>
+        <v>590.589076416899</v>
       </c>
       <c r="P18" t="n">
-        <v>677.4649847190648</v>
+        <v>677.4649847190638</v>
       </c>
       <c r="Q18" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="R18" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="S18" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="T18" t="n">
-        <v>715.3219541700629</v>
+        <v>559.0079809687301</v>
       </c>
       <c r="U18" t="n">
-        <v>715.3219541700629</v>
+        <v>559.0079809687301</v>
       </c>
       <c r="V18" t="n">
-        <v>501.6104271630967</v>
+        <v>559.0079809687301</v>
       </c>
       <c r="W18" t="n">
-        <v>288.3772588994254</v>
+        <v>345.7748127050588</v>
       </c>
       <c r="X18" t="n">
-        <v>288.3772588994254</v>
+        <v>169.4488308439516</v>
       </c>
       <c r="Y18" t="n">
-        <v>288.3772588994254</v>
+        <v>134.4616823785353</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K19" t="n">
-        <v>37.55032788682526</v>
+        <v>37.55032788682517</v>
       </c>
       <c r="L19" t="n">
-        <v>75.2371232947673</v>
+        <v>75.23712329476713</v>
       </c>
       <c r="M19" t="n">
-        <v>116.2921695945572</v>
+        <v>116.2921695945569</v>
       </c>
       <c r="N19" t="n">
-        <v>159.5533166477875</v>
+        <v>159.5533166477871</v>
       </c>
       <c r="O19" t="n">
-        <v>191.2851869593636</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="R19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="S19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="T19" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="U19" t="n">
-        <v>210.7171855514431</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C20" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D20" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E20" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F20" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G20" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H20" t="n">
-        <v>49.78853514722242</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I20" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422725</v>
+        <v>61.76566646422701</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474255</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L20" t="n">
-        <v>271.1830965723314</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M20" t="n">
-        <v>420.4501281543865</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547436</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809677</v>
+        <v>713.5940480809663</v>
       </c>
       <c r="P20" t="n">
-        <v>818.7605380598424</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963859</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="S20" t="n">
-        <v>774.9388295947119</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="T20" t="n">
-        <v>774.9388295947119</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="U20" t="n">
-        <v>774.9388295947119</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="V20" t="n">
-        <v>553.1645291158266</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="W20" t="n">
-        <v>331.3902286369412</v>
+        <v>440.3914601484834</v>
       </c>
       <c r="X20" t="n">
-        <v>271.5628356261078</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.5628356261078</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.56452459792772</v>
+        <v>151.559595848982</v>
       </c>
       <c r="C21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I21" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J21" t="n">
-        <v>36.26919386777747</v>
+        <v>36.26919386777739</v>
       </c>
       <c r="K21" t="n">
-        <v>99.89115689943321</v>
+        <v>99.89115689943301</v>
       </c>
       <c r="L21" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012279</v>
       </c>
       <c r="M21" t="n">
-        <v>333.7616594659747</v>
+        <v>333.7616594659742</v>
       </c>
       <c r="N21" t="n">
-        <v>472.5885816838006</v>
+        <v>472.5885816837999</v>
       </c>
       <c r="O21" t="n">
-        <v>590.5890764169</v>
+        <v>590.589076416899</v>
       </c>
       <c r="P21" t="n">
-        <v>677.4649847190648</v>
+        <v>677.4649847190638</v>
       </c>
       <c r="Q21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="R21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="S21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="T21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="U21" t="n">
-        <v>715.3219541700629</v>
+        <v>715.3219541700619</v>
       </c>
       <c r="V21" t="n">
-        <v>566.5256343588761</v>
+        <v>501.6104271630957</v>
       </c>
       <c r="W21" t="n">
-        <v>353.2924660952049</v>
+        <v>501.6104271630957</v>
       </c>
       <c r="X21" t="n">
-        <v>176.9664842340977</v>
+        <v>325.2844453019885</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.56452459792772</v>
+        <v>291.8626284845686</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J22" t="n">
-        <v>17.56452459792772</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K22" t="n">
-        <v>37.55032788682526</v>
+        <v>37.55032788682517</v>
       </c>
       <c r="L22" t="n">
-        <v>75.2371232947673</v>
+        <v>75.23712329476713</v>
       </c>
       <c r="M22" t="n">
-        <v>116.2921695945572</v>
+        <v>116.2921695945569</v>
       </c>
       <c r="N22" t="n">
-        <v>159.5533166477875</v>
+        <v>159.5533166477871</v>
       </c>
       <c r="O22" t="n">
-        <v>191.2851869593636</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P22" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="R22" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="S22" t="n">
-        <v>210.7171855514431</v>
+        <v>210.7171855514426</v>
       </c>
       <c r="T22" t="n">
-        <v>210.7171855514431</v>
+        <v>205.2642309919721</v>
       </c>
       <c r="U22" t="n">
-        <v>210.7171855514431</v>
+        <v>205.2642309919721</v>
       </c>
       <c r="V22" t="n">
-        <v>210.7171855514431</v>
+        <v>205.2642309919721</v>
       </c>
       <c r="W22" t="n">
-        <v>17.56452459792772</v>
+        <v>205.2642309919721</v>
       </c>
       <c r="X22" t="n">
-        <v>17.56452459792772</v>
+        <v>205.2642309919721</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.56452459792772</v>
+        <v>205.2642309919721</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1127.141502435101</v>
+        <v>394.6607818528088</v>
       </c>
       <c r="C23" t="n">
-        <v>1127.141502435101</v>
+        <v>394.6607818528088</v>
       </c>
       <c r="D23" t="n">
-        <v>1127.141502435101</v>
+        <v>394.6607818528088</v>
       </c>
       <c r="E23" t="n">
-        <v>1127.141502435101</v>
+        <v>394.6607818528088</v>
       </c>
       <c r="F23" t="n">
-        <v>706.1110903887889</v>
+        <v>394.6607818528088</v>
       </c>
       <c r="G23" t="n">
-        <v>299.6226548694668</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H23" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I23" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J23" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131298</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M23" t="n">
         <v>887.4914597655643</v>
@@ -6004,37 +6004,37 @@
         <v>1187.216805582613</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P23" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q23" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R23" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S23" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T23" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U23" t="n">
-        <v>1887.20023676311</v>
+        <v>1546.078407399285</v>
       </c>
       <c r="V23" t="n">
-        <v>1537.362682099591</v>
+        <v>1196.240852735766</v>
       </c>
       <c r="W23" t="n">
-        <v>1537.362682099591</v>
+        <v>1196.240852735766</v>
       </c>
       <c r="X23" t="n">
-        <v>1537.362682099591</v>
+        <v>795.5974549047187</v>
       </c>
       <c r="Y23" t="n">
-        <v>1537.362682099591</v>
+        <v>394.6607818528088</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>288.6362337669241</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C24" t="n">
-        <v>154.6411625158698</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D24" t="n">
-        <v>37.7440047352622</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E24" t="n">
-        <v>37.7440047352622</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F24" t="n">
-        <v>37.7440047352622</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G24" t="n">
-        <v>37.7440047352622</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H24" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J24" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K24" t="n">
         <v>232.7978194276822</v>
@@ -6098,22 +6098,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T24" t="n">
-        <v>1388.883870305382</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U24" t="n">
-        <v>1191.611903170425</v>
+        <v>1232.493040000707</v>
       </c>
       <c r="V24" t="n">
-        <v>977.9003761634591</v>
+        <v>1018.781512993741</v>
       </c>
       <c r="W24" t="n">
-        <v>764.6672078997879</v>
+        <v>1018.781512993741</v>
       </c>
       <c r="X24" t="n">
-        <v>588.3412260386807</v>
+        <v>842.4555311326335</v>
       </c>
       <c r="Y24" t="n">
-        <v>428.9392664025107</v>
+        <v>683.0535714964635</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J25" t="n">
         <v>56.4452522174457</v>
@@ -6180,19 +6180,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>578.8559946720579</v>
+        <v>311.6297497957403</v>
       </c>
       <c r="V25" t="n">
-        <v>304.9702496115798</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="W25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>863.2383466885142</v>
+        <v>873.114632264678</v>
       </c>
       <c r="C26" t="n">
-        <v>863.2383466885142</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D26" t="n">
-        <v>458.7744167815746</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E26" t="n">
         <v>458.7744167815746</v>
       </c>
       <c r="F26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H26" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526202</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J26" t="n">
         <v>151.4749218512229</v>
@@ -6235,43 +6235,43 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q26" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R26" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S26" t="n">
-        <v>1887.20023676311</v>
+        <v>1836.290406839953</v>
       </c>
       <c r="T26" t="n">
-        <v>1887.20023676311</v>
+        <v>1623.888859980107</v>
       </c>
       <c r="U26" t="n">
-        <v>1887.20023676311</v>
+        <v>1623.888859980107</v>
       </c>
       <c r="V26" t="n">
-        <v>1887.20023676311</v>
+        <v>1274.051305316588</v>
       </c>
       <c r="W26" t="n">
-        <v>1887.20023676311</v>
+        <v>1274.051305316588</v>
       </c>
       <c r="X26" t="n">
-        <v>1674.396199404914</v>
+        <v>1274.051305316588</v>
       </c>
       <c r="Y26" t="n">
-        <v>1273.459526353004</v>
+        <v>873.114632264678</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1143.341212273494</v>
+        <v>386.1287825576017</v>
       </c>
       <c r="C27" t="n">
-        <v>1009.34614102244</v>
+        <v>252.1337113065474</v>
       </c>
       <c r="D27" t="n">
-        <v>892.4489832418324</v>
+        <v>252.1337113065474</v>
       </c>
       <c r="E27" t="n">
-        <v>771.9561672341604</v>
+        <v>252.1337113065474</v>
       </c>
       <c r="F27" t="n">
-        <v>662.9962874166649</v>
+        <v>143.173831489052</v>
       </c>
       <c r="G27" t="n">
-        <v>557.2045993787364</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H27" t="n">
-        <v>498.0316455122929</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I27" t="n">
-        <v>498.5685927704022</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J27" t="n">
-        <v>558.6847198523044</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K27" t="n">
-        <v>693.0854602047129</v>
+        <v>232.7978194276822</v>
       </c>
       <c r="L27" t="n">
-        <v>892.5644708578964</v>
+        <v>432.2768300808657</v>
       </c>
       <c r="M27" t="n">
-        <v>1133.186599082843</v>
+        <v>672.8989583058121</v>
       </c>
       <c r="N27" t="n">
-        <v>1386.012780239293</v>
+        <v>925.7251394622621</v>
       </c>
       <c r="O27" t="n">
-        <v>1608.300325338225</v>
+        <v>1148.012684561194</v>
       </c>
       <c r="P27" t="n">
-        <v>1778.87578566774</v>
+        <v>1318.588144890709</v>
       </c>
       <c r="Q27" t="n">
-        <v>1872.683689066186</v>
+        <v>1412.396048289155</v>
       </c>
       <c r="R27" t="n">
-        <v>1887.20023676311</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="S27" t="n">
-        <v>1887.20023676311</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T27" t="n">
-        <v>1887.20023676311</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U27" t="n">
-        <v>1887.20023676311</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V27" t="n">
-        <v>1832.60535467003</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="W27" t="n">
-        <v>1619.372186406358</v>
+        <v>562.4547644187089</v>
       </c>
       <c r="X27" t="n">
-        <v>1443.046204545251</v>
+        <v>386.1287825576017</v>
       </c>
       <c r="Y27" t="n">
-        <v>1283.644244909081</v>
+        <v>386.1287825576017</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J28" t="n">
         <v>56.4452522174457</v>
@@ -6411,25 +6411,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S28" t="n">
-        <v>409.9737380035501</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T28" t="n">
-        <v>174.7178891118346</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U28" t="n">
-        <v>174.7178891118346</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V28" t="n">
-        <v>174.7178891118346</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.7178891118346</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>852.3325253289315</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="C29" t="n">
-        <v>442.2079346422017</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="D29" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E29" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F29" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G29" t="n">
         <v>37.7440047352622</v>
@@ -6460,16 +6460,16 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I29" t="n">
-        <v>37.74400473526217</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J29" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M29" t="n">
         <v>887.4914597655643</v>
@@ -6493,22 +6493,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T29" t="n">
-        <v>1674.798689903264</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U29" t="n">
-        <v>1674.798689903264</v>
+        <v>1656.033690802031</v>
       </c>
       <c r="V29" t="n">
-        <v>1674.798689903264</v>
+        <v>1656.033690802031</v>
       </c>
       <c r="W29" t="n">
-        <v>1674.798689903264</v>
+        <v>1656.033690802031</v>
       </c>
       <c r="X29" t="n">
-        <v>1663.490378045331</v>
+        <v>1255.390292970983</v>
       </c>
       <c r="Y29" t="n">
-        <v>1262.553704993421</v>
+        <v>854.4536199190736</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>518.0889295920915</v>
+        <v>312.4566206003316</v>
       </c>
       <c r="C30" t="n">
-        <v>384.0938583410372</v>
+        <v>260.4328505537983</v>
       </c>
       <c r="D30" t="n">
-        <v>267.1967005604296</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="E30" t="n">
-        <v>146.7038845527576</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="F30" t="n">
-        <v>37.7440047352622</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G30" t="n">
         <v>37.7440047352622</v>
@@ -6569,25 +6569,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S30" t="n">
-        <v>1362.342802214797</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T30" t="n">
-        <v>1207.831430731922</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U30" t="n">
-        <v>1207.831430731922</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V30" t="n">
-        <v>994.1199037249553</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W30" t="n">
-        <v>994.1199037249553</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X30" t="n">
-        <v>817.7939218638481</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y30" t="n">
-        <v>658.3919622276782</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1887.20023676311</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C31" t="n">
-        <v>1887.20023676311</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D31" t="n">
-        <v>1887.20023676311</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E31" t="n">
-        <v>1887.20023676311</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F31" t="n">
-        <v>1722.569110873701</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G31" t="n">
-        <v>1572.894243440016</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H31" t="n">
-        <v>1432.219653242681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I31" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J31" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K31" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L31" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M31" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N31" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O31" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P31" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q31" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R31" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S31" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T31" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.20023676311</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V31" t="n">
-        <v>1887.20023676311</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W31" t="n">
-        <v>1887.20023676311</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="X31" t="n">
-        <v>1887.20023676311</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y31" t="n">
-        <v>1887.20023676311</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1503.439935898278</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="C32" t="n">
-        <v>1093.315345211548</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="D32" t="n">
-        <v>688.851415304609</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="E32" t="n">
-        <v>274.5111998215057</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F32" t="n">
-        <v>274.5111998215057</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G32" t="n">
-        <v>274.5111998215057</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J32" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L32" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
@@ -6721,31 +6721,31 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q32" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R32" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S32" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U32" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V32" t="n">
-        <v>1887.20023676311</v>
+        <v>1531.441038720322</v>
       </c>
       <c r="W32" t="n">
-        <v>1503.439935898278</v>
+        <v>1147.68073785549</v>
       </c>
       <c r="X32" t="n">
-        <v>1503.439935898278</v>
+        <v>1147.68073785549</v>
       </c>
       <c r="Y32" t="n">
-        <v>1503.439935898278</v>
+        <v>746.7440648035805</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>171.7390759863165</v>
+        <v>292.2318919939885</v>
       </c>
       <c r="C33" t="n">
-        <v>37.74400473526219</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="D33" t="n">
-        <v>37.74400473526219</v>
+        <v>158.2368207429342</v>
       </c>
       <c r="E33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H33" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J33" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K33" t="n">
         <v>232.7978194276822</v>
@@ -6806,25 +6806,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S33" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T33" t="n">
-        <v>1271.986712524774</v>
+        <v>1392.479528532446</v>
       </c>
       <c r="U33" t="n">
-        <v>1074.714745389818</v>
+        <v>1195.20756139749</v>
       </c>
       <c r="V33" t="n">
-        <v>861.0032183828515</v>
+        <v>981.4960343905235</v>
       </c>
       <c r="W33" t="n">
-        <v>647.7700501191803</v>
+        <v>768.2628661268523</v>
       </c>
       <c r="X33" t="n">
-        <v>471.4440682580731</v>
+        <v>591.9368842657451</v>
       </c>
       <c r="Y33" t="n">
-        <v>312.0421086219031</v>
+        <v>432.5349246295751</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1512.333918933804</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C34" t="n">
-        <v>1512.333918933804</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D34" t="n">
-        <v>1512.333918933804</v>
+        <v>419.361349994968</v>
       </c>
       <c r="E34" t="n">
-        <v>1512.333918933804</v>
+        <v>419.361349994968</v>
       </c>
       <c r="F34" t="n">
-        <v>1512.333918933804</v>
+        <v>419.361349994968</v>
       </c>
       <c r="G34" t="n">
-        <v>1346.088246826314</v>
+        <v>253.1156778874775</v>
       </c>
       <c r="H34" t="n">
-        <v>1346.088246826314</v>
+        <v>112.4410876901418</v>
       </c>
       <c r="I34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J34" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K34" t="n">
-        <v>1427.468776269657</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L34" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M34" t="n">
-        <v>1618.446361557357</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N34" t="n">
-        <v>1717.9406327491</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O34" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P34" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T34" t="n">
-        <v>1750.677781074121</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U34" t="n">
-        <v>1750.677781074121</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V34" t="n">
-        <v>1750.677781074121</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W34" t="n">
-        <v>1750.677781074121</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X34" t="n">
-        <v>1512.333918933804</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1512.333918933804</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.558164392902</v>
+        <v>1258.820960848253</v>
       </c>
       <c r="C35" t="n">
-        <v>1180.433573706172</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="D35" t="n">
-        <v>775.9696437992325</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E35" t="n">
-        <v>361.6294283161292</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F35" t="n">
-        <v>361.6294283161292</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G35" t="n">
         <v>37.7440047352622</v>
@@ -6934,25 +6934,25 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74400473526202</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P35" t="n">
         <v>1687.808675484973</v>
@@ -6967,22 +6967,22 @@
         <v>1802.959711252748</v>
       </c>
       <c r="T35" t="n">
-        <v>1590.558164392902</v>
+        <v>1659.757633900163</v>
       </c>
       <c r="U35" t="n">
-        <v>1590.558164392902</v>
+        <v>1659.757633900163</v>
       </c>
       <c r="V35" t="n">
-        <v>1590.558164392902</v>
+        <v>1659.757633900163</v>
       </c>
       <c r="W35" t="n">
-        <v>1590.558164392902</v>
+        <v>1659.757633900163</v>
       </c>
       <c r="X35" t="n">
-        <v>1590.558164392902</v>
+        <v>1659.757633900163</v>
       </c>
       <c r="Y35" t="n">
-        <v>1590.558164392902</v>
+        <v>1258.820960848253</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>409.1290497745961</v>
+        <v>172.153587964745</v>
       </c>
       <c r="C36" t="n">
-        <v>275.1339785235418</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="D36" t="n">
-        <v>158.2368207429342</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E36" t="n">
         <v>37.7440047352622</v>
@@ -7046,22 +7046,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1312.104719178097</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U36" t="n">
-        <v>1312.104719178097</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V36" t="n">
-        <v>1098.393192171131</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W36" t="n">
-        <v>885.1600239074598</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X36" t="n">
-        <v>708.8340420463527</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y36" t="n">
-        <v>549.4320824101827</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="37">
@@ -7122,16 +7122,16 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S37" t="n">
-        <v>555.7431982281099</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T37" t="n">
-        <v>320.4873493363945</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U37" t="n">
-        <v>37.7440047352622</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V37" t="n">
-        <v>37.7440047352622</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W37" t="n">
         <v>37.7440047352622</v>
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1476.979057098621</v>
+        <v>1283.239222951408</v>
       </c>
       <c r="C38" t="n">
-        <v>1476.979057098621</v>
+        <v>873.114632264678</v>
       </c>
       <c r="D38" t="n">
-        <v>1476.979057098621</v>
+        <v>873.114632264678</v>
       </c>
       <c r="E38" t="n">
-        <v>1153.232500322903</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F38" t="n">
-        <v>732.2020882765901</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G38" t="n">
-        <v>325.7136527572681</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H38" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K38" t="n">
         <v>342.4771847987904</v>
       </c>
       <c r="L38" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131302</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655646</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582614</v>
@@ -7201,25 +7201,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S38" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.20023676311</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="U38" t="n">
-        <v>1887.20023676311</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="V38" t="n">
-        <v>1887.20023676311</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.20023676311</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="X38" t="n">
-        <v>1887.20023676311</v>
+        <v>1693.460402615897</v>
       </c>
       <c r="Y38" t="n">
-        <v>1887.20023676311</v>
+        <v>1693.460402615897</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>288.6362337669241</v>
+        <v>673.7332662888753</v>
       </c>
       <c r="C39" t="n">
-        <v>154.6411625158698</v>
+        <v>539.738195037821</v>
       </c>
       <c r="D39" t="n">
-        <v>37.7440047352622</v>
+        <v>422.8410372572134</v>
       </c>
       <c r="E39" t="n">
-        <v>37.7440047352622</v>
+        <v>302.3482212495414</v>
       </c>
       <c r="F39" t="n">
-        <v>37.7440047352622</v>
+        <v>193.388341432046</v>
       </c>
       <c r="G39" t="n">
-        <v>37.7440047352622</v>
+        <v>87.59665339411751</v>
       </c>
       <c r="H39" t="n">
         <v>37.7440047352622</v>
@@ -7280,25 +7280,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S39" t="n">
-        <v>1388.883870305382</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T39" t="n">
-        <v>1388.883870305382</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U39" t="n">
-        <v>1191.611903170425</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="V39" t="n">
-        <v>977.9003761634591</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="W39" t="n">
-        <v>764.6672078997879</v>
+        <v>973.4382585606319</v>
       </c>
       <c r="X39" t="n">
-        <v>588.3412260386807</v>
+        <v>973.4382585606319</v>
       </c>
       <c r="Y39" t="n">
-        <v>428.9392664025107</v>
+        <v>814.0362989244619</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.8373771735457</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="C40" t="n">
-        <v>37.7440047352622</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="D40" t="n">
-        <v>37.7440047352622</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="E40" t="n">
-        <v>37.7440047352622</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="F40" t="n">
-        <v>37.7440047352622</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G40" t="n">
-        <v>37.7440047352622</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H40" t="n">
         <v>37.7440047352622</v>
@@ -7368,16 +7368,16 @@
         <v>578.8559946720579</v>
       </c>
       <c r="V40" t="n">
-        <v>578.8559946720579</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="W40" t="n">
-        <v>578.8559946720579</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="X40" t="n">
-        <v>578.8559946720579</v>
+        <v>304.9702496115798</v>
       </c>
       <c r="Y40" t="n">
-        <v>396.5370835675901</v>
+        <v>304.9702496115798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1266.672740812035</v>
+        <v>1007.696206385312</v>
       </c>
       <c r="C41" t="n">
-        <v>856.548150125305</v>
+        <v>1007.696206385312</v>
       </c>
       <c r="D41" t="n">
-        <v>452.0842202183655</v>
+        <v>1007.696206385312</v>
       </c>
       <c r="E41" t="n">
-        <v>37.74400473526219</v>
+        <v>593.3559909022088</v>
       </c>
       <c r="F41" t="n">
-        <v>37.74400473526219</v>
+        <v>172.3255788558963</v>
       </c>
       <c r="G41" t="n">
         <v>37.74400473526219</v>
@@ -7408,19 +7408,19 @@
         <v>37.74400473526219</v>
       </c>
       <c r="I41" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J41" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512229</v>
       </c>
       <c r="K41" t="n">
-        <v>342.4771847987905</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L41" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N41" t="n">
         <v>1187.216805582613</v>
@@ -7432,7 +7432,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R41" t="n">
         <v>1887.20023676311</v>
@@ -7441,22 +7441,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V41" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="W41" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="X41" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.893920476524</v>
+        <v>1417.917386049802</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>154.6411625158698</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C42" t="n">
-        <v>154.6411625158698</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D42" t="n">
-        <v>37.74400473526219</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E42" t="n">
-        <v>37.74400473526219</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F42" t="n">
-        <v>37.74400473526219</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="G42" t="n">
-        <v>37.74400473526219</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H42" t="n">
         <v>37.74400473526219</v>
@@ -7520,22 +7520,22 @@
         <v>1341.182798307179</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.888799054328</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U42" t="n">
-        <v>1057.616831919371</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="V42" t="n">
-        <v>843.9053049124049</v>
+        <v>999.6825859931573</v>
       </c>
       <c r="W42" t="n">
-        <v>630.6721366487336</v>
+        <v>999.6825859931573</v>
       </c>
       <c r="X42" t="n">
-        <v>454.3461547876264</v>
+        <v>823.3566041320502</v>
       </c>
       <c r="Y42" t="n">
-        <v>294.9441951514564</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.74400473526219</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="C43" t="n">
-        <v>37.74400473526219</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="D43" t="n">
-        <v>37.74400473526219</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="E43" t="n">
-        <v>37.74400473526219</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="F43" t="n">
-        <v>37.74400473526219</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="G43" t="n">
-        <v>37.74400473526219</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H43" t="n">
         <v>37.74400473526219</v>
@@ -7596,25 +7596,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S43" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="T43" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="U43" t="n">
-        <v>549.9736119360568</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="V43" t="n">
-        <v>276.0878668755788</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="W43" t="n">
-        <v>276.0878668755788</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="X43" t="n">
-        <v>37.74400473526219</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.74400473526219</v>
+        <v>409.9737380035501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>442.2079346422017</v>
+        <v>95.14100649833955</v>
       </c>
       <c r="C44" t="n">
-        <v>442.2079346422017</v>
+        <v>95.14100649833955</v>
       </c>
       <c r="D44" t="n">
         <v>37.74400473526219</v>
@@ -7648,22 +7648,22 @@
         <v>37.74400473526219</v>
       </c>
       <c r="J44" t="n">
-        <v>151.4749218512231</v>
+        <v>151.474921851223</v>
       </c>
       <c r="K44" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L44" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M44" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N44" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P44" t="n">
         <v>1687.808675484973</v>
@@ -7681,19 +7681,19 @@
         <v>1887.20023676311</v>
       </c>
       <c r="U44" t="n">
-        <v>1630.318932909647</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V44" t="n">
         <v>1280.481378246128</v>
       </c>
       <c r="W44" t="n">
-        <v>896.7210773812967</v>
+        <v>896.7210773812969</v>
       </c>
       <c r="X44" t="n">
-        <v>852.4291143066912</v>
+        <v>496.0776795502495</v>
       </c>
       <c r="Y44" t="n">
-        <v>852.4291143066912</v>
+        <v>95.14100649833955</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.3764864545871</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="C45" t="n">
-        <v>406.3814152035328</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D45" t="n">
-        <v>289.4842574229252</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E45" t="n">
-        <v>168.9914414152531</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F45" t="n">
-        <v>60.03156159775773</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G45" t="n">
         <v>37.74400473526219</v>
@@ -7757,22 +7757,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T45" t="n">
-        <v>1426.912595986079</v>
+        <v>1273.50416842073</v>
       </c>
       <c r="U45" t="n">
-        <v>1229.640628851122</v>
+        <v>1076.232201285773</v>
       </c>
       <c r="V45" t="n">
-        <v>1229.640628851122</v>
+        <v>862.520674278807</v>
       </c>
       <c r="W45" t="n">
-        <v>1016.407460587451</v>
+        <v>649.2875060151357</v>
       </c>
       <c r="X45" t="n">
-        <v>840.0814787263437</v>
+        <v>649.2875060151357</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.6795190901737</v>
+        <v>489.8855463789657</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>354.1202960608226</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C46" t="n">
-        <v>354.1202960608226</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D46" t="n">
-        <v>354.1202960608226</v>
+        <v>509.2953929294971</v>
       </c>
       <c r="E46" t="n">
-        <v>354.1202960608226</v>
+        <v>509.2953929294971</v>
       </c>
       <c r="F46" t="n">
-        <v>189.4891701714139</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="G46" t="n">
-        <v>189.4891701714139</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H46" t="n">
-        <v>123.8754111516283</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I46" t="n">
         <v>37.74400473526219</v>
@@ -7851,7 +7851,7 @@
         <v>578.8559946720579</v>
       </c>
       <c r="Y46" t="n">
-        <v>354.1202960608226</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
   </sheetData>
@@ -22549,7 +22549,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>374.7565116295237</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22558,19 +22558,19 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>385.5532747755104</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9316432678622</v>
+        <v>372.6648101175234</v>
       </c>
       <c r="H2" t="n">
-        <v>294.9637443384701</v>
+        <v>300.5346997991465</v>
       </c>
       <c r="I2" t="n">
-        <v>26.87388767884804</v>
+        <v>39.45204743780207</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>13.11771793070538</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.43112086737388</v>
+        <v>13.43112086737342</v>
       </c>
       <c r="R2" t="n">
-        <v>42.75293345816497</v>
+        <v>42.7529334581647</v>
       </c>
       <c r="S2" t="n">
-        <v>117.7637690690858</v>
+        <v>117.7637690690857</v>
       </c>
       <c r="T2" t="n">
-        <v>185.6123714250029</v>
+        <v>216.879204575341</v>
       </c>
       <c r="U2" t="n">
-        <v>223.1663050328881</v>
+        <v>254.4331381832263</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22634,22 +22634,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>91.7480612087768</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>76.60344786898158</v>
       </c>
       <c r="G3" t="n">
         <v>105.5406715694666</v>
       </c>
       <c r="H3" t="n">
-        <v>66.37418356919197</v>
+        <v>66.37418356919196</v>
       </c>
       <c r="I3" t="n">
-        <v>27.23906865305371</v>
+        <v>27.23906865305364</v>
       </c>
       <c r="J3" t="n">
-        <v>15.51103305293377</v>
+        <v>15.51103305293356</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,16 +22670,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8.244671795650561</v>
       </c>
       <c r="R3" t="n">
-        <v>4.168593634586802</v>
+        <v>4.168593634585921</v>
       </c>
       <c r="S3" t="n">
-        <v>68.59348779944931</v>
+        <v>99.86032094978739</v>
       </c>
       <c r="T3" t="n">
-        <v>124.9517995236392</v>
+        <v>124.9517995236384</v>
       </c>
       <c r="U3" t="n">
         <v>195.3523330170228</v>
@@ -22691,7 +22691,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>155.2675671993291</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -22728,31 +22728,31 @@
         <v>105.6136367610332</v>
       </c>
       <c r="J4" t="n">
-        <v>28.93685975466236</v>
+        <v>28.93685975466223</v>
       </c>
       <c r="K4" t="n">
-        <v>15.2820611929121</v>
+        <v>15.28206119291188</v>
       </c>
       <c r="L4" t="n">
-        <v>7.321586928322901</v>
+        <v>7.321586928322617</v>
       </c>
       <c r="M4" t="n">
-        <v>6.386652893333569</v>
+        <v>6.38665289333327</v>
       </c>
       <c r="N4" t="n">
-        <v>3.020350146331566</v>
+        <v>3.020350146331282</v>
       </c>
       <c r="O4" t="n">
-        <v>11.09968222972763</v>
+        <v>11.09968222972736</v>
       </c>
       <c r="P4" t="n">
-        <v>17.29577477735999</v>
+        <v>17.29577477735977</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.7151525487635</v>
+        <v>34.71515254876334</v>
       </c>
       <c r="R4" t="n">
-        <v>70.1128508300084</v>
+        <v>70.11285083000831</v>
       </c>
       <c r="S4" t="n">
         <v>178.9826041839656</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>368.5896634057582</v>
+        <v>373.0631564976388</v>
       </c>
       <c r="C5" t="n">
-        <v>368.4940403177762</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>362.8899861457836</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22798,16 +22798,16 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>403.8959782144399</v>
+        <v>366.3666737523534</v>
       </c>
       <c r="H5" t="n">
         <v>300.1694450707848</v>
       </c>
       <c r="I5" t="n">
-        <v>56.76574385712079</v>
+        <v>56.76574385712077</v>
       </c>
       <c r="J5" t="n">
-        <v>10.09069110280006</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R5" t="n">
-        <v>40.51258854612291</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S5" t="n">
         <v>116.9510516642238</v>
@@ -22849,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>373.1608488121418</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.3980018593044</v>
+        <v>359.3980018593043</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>111.6530001492272</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>78.19888174071502</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -22877,16 +22877,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.5215890835718</v>
+        <v>67.99228462148537</v>
       </c>
       <c r="H6" t="n">
-        <v>66.18988692910271</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I6" t="n">
-        <v>26.58206201150026</v>
+        <v>26.58206201150024</v>
       </c>
       <c r="J6" t="n">
-        <v>13.70815661144294</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.808809210202206</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S6" t="n">
-        <v>99.50587214380288</v>
+        <v>61.9765676817164</v>
       </c>
       <c r="T6" t="n">
-        <v>119.8072397894868</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U6" t="n">
         <v>195.3510775903192</v>
       </c>
       <c r="V6" t="n">
-        <v>174.0451072748101</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>173.5715321189481</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -22965,28 +22965,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J7" t="n">
-        <v>27.80579301341919</v>
+        <v>27.80579301341917</v>
       </c>
       <c r="K7" t="n">
-        <v>13.42337108707596</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L7" t="n">
-        <v>4.943103517458709</v>
+        <v>4.943103517458681</v>
       </c>
       <c r="M7" t="n">
-        <v>3.878875624559498</v>
+        <v>3.878875624559463</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5722022158511422</v>
+        <v>0.5722022158511066</v>
       </c>
       <c r="O7" t="n">
-        <v>8.838421371704122</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P7" t="n">
-        <v>15.36087546843636</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37552856090304</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R7" t="n">
         <v>69.39351739781233</v>
@@ -23023,7 +23023,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>365.565181609218</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23041,10 +23041,10 @@
         <v>299.8605650539583</v>
       </c>
       <c r="I8" t="n">
-        <v>55.60298571248953</v>
+        <v>55.60298571248951</v>
       </c>
       <c r="J8" t="n">
-        <v>7.530866342333226</v>
+        <v>7.530866342333198</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.61802642167716</v>
       </c>
       <c r="S8" t="n">
-        <v>70.8581445984159</v>
+        <v>116.2637719490099</v>
       </c>
       <c r="T8" t="n">
-        <v>171.1854263791899</v>
+        <v>216.5910537297839</v>
       </c>
       <c r="U8" t="n">
-        <v>254.427872148356</v>
+        <v>209.0222447977619</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>300.9335517662901</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>346.2521356144552</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>351.2313365021429</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23105,25 +23105,25 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>108.9836247523675</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>73.88226049700123</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>62.46465366872639</v>
       </c>
       <c r="G9" t="n">
-        <v>60.09982450570438</v>
+        <v>60.0998245057043</v>
       </c>
       <c r="H9" t="n">
-        <v>20.62840793615717</v>
+        <v>66.03403528675115</v>
       </c>
       <c r="I9" t="n">
         <v>26.02646010756757</v>
       </c>
       <c r="J9" t="n">
-        <v>12.1835425206641</v>
+        <v>12.18354252066408</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,22 +23144,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.748906304207722</v>
+        <v>3.748906304207694</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>99.20613022492964</v>
+        <v>99.20613022492962</v>
       </c>
       <c r="T9" t="n">
         <v>156.076672514321</v>
       </c>
       <c r="U9" t="n">
-        <v>188.6054544801963</v>
+        <v>195.3500159306301</v>
       </c>
       <c r="V9" t="n">
-        <v>166.1687843863025</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -23202,31 +23202,31 @@
         <v>104.7256786086731</v>
       </c>
       <c r="J10" t="n">
-        <v>26.84929912863324</v>
+        <v>26.84929912863322</v>
       </c>
       <c r="K10" t="n">
-        <v>11.8515578110615</v>
+        <v>11.85155781106148</v>
       </c>
       <c r="L10" t="n">
-        <v>2.931723680530666</v>
+        <v>2.931723680530631</v>
       </c>
       <c r="M10" t="n">
-        <v>1.758157602781928</v>
+        <v>1.7581576027819</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.457893659671979</v>
+        <v>6.926171542637363</v>
       </c>
       <c r="P10" t="n">
-        <v>13.72461538830363</v>
+        <v>13.7246153883036</v>
       </c>
       <c r="Q10" t="n">
-        <v>32.24266689538119</v>
+        <v>32.24266689538117</v>
       </c>
       <c r="R10" t="n">
-        <v>68.78520844138296</v>
+        <v>68.78520844138295</v>
       </c>
       <c r="S10" t="n">
         <v>178.468028676688</v>
@@ -23235,7 +23235,7 @@
         <v>235.6675363340381</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9511994010516</v>
+        <v>278.4829215180862</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.6353224884625</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>183.6944827100391</v>
       </c>
       <c r="H11" t="n">
-        <v>74.00791599383147</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>249.5515966945875</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472946</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.238891319710859</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -23348,7 +23348,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>81.97247698482963</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23427,10 +23427,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>136.7180787599983</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.5679993783892</v>
@@ -23469,7 +23469,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
-        <v>43.26812015802359</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
         <v>279.9361575053235</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.7335520446603</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23503,19 +23503,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>190.6402558541756</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517526</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100391</v>
       </c>
       <c r="H14" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380173</v>
+        <v>31.90177044380179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243197</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>152.9537632937003</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.3707488472942</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23582,10 +23582,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>105.1765168157536</v>
@@ -23594,7 +23594,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951476</v>
+        <v>14.70128436951479</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.82588865527175</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S15" t="n">
-        <v>93.09630611656611</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T15" t="n">
-        <v>154.7508334693185</v>
+        <v>98.03193426415424</v>
       </c>
       <c r="U15" t="n">
-        <v>101.7864905514493</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>63.11114398358502</v>
+        <v>140.3407068778988</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23673,10 +23673,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J16" t="n">
-        <v>7.352495282391843</v>
+        <v>7.352495282391892</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123438</v>
+        <v>9.150849970123495</v>
       </c>
       <c r="R16" t="n">
-        <v>56.3856723961843</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>234.4892545020035</v>
@@ -23734,25 +23734,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>212.6379289566788</v>
       </c>
       <c r="D17" t="n">
-        <v>207.0338747846859</v>
+        <v>180.862733133774</v>
       </c>
       <c r="E17" t="n">
-        <v>190.6402558541758</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>197.2635504517528</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>183.6944827100388</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H17" t="n">
-        <v>293.5644734679276</v>
+        <v>74.00791599383152</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380174</v>
+        <v>31.90177044380179</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>177.0804063786409</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>3.450515889291779</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -23831,7 +23831,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I18" t="n">
-        <v>14.70128436951477</v>
+        <v>14.70128436951479</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.82588865527177</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S18" t="n">
-        <v>93.09630611656611</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>195.3283754674364</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>123.1706630590461</v>
       </c>
     </row>
     <row r="19">
@@ -23910,10 +23910,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I19" t="n">
-        <v>96.43258009724632</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J19" t="n">
-        <v>7.352495282391857</v>
+        <v>7.352495282391892</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.150849970123453</v>
+        <v>9.150849970123495</v>
       </c>
       <c r="R19" t="n">
-        <v>56.38567239618431</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S19" t="n">
         <v>173.6621429915595</v>
@@ -23946,10 +23946,10 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134374</v>
       </c>
       <c r="V19" t="n">
-        <v>79.92575326589304</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23986,10 +23986,10 @@
         <v>403.2510401841353</v>
       </c>
       <c r="H20" t="n">
-        <v>74.00791599383112</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>31.90177044380179</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V20" t="n">
-        <v>126.7826216427876</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>160.3661403820866</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X20" t="n">
-        <v>337.4078447720119</v>
+        <v>197.5948551317831</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472946</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
@@ -24068,7 +24068,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I21" t="n">
-        <v>14.70128436951477</v>
+        <v>14.70128436951479</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.82588865527177</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S21" t="n">
-        <v>93.09630611656611</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T21" t="n">
         <v>154.7508334693185</v>
@@ -24107,16 +24107,16 @@
         <v>195.3283754674364</v>
       </c>
       <c r="V21" t="n">
-        <v>64.26605512382162</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>124.7203413905627</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24147,10 +24147,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I22" t="n">
-        <v>96.43258009724632</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J22" t="n">
-        <v>7.352495282391857</v>
+        <v>7.352495282391892</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123453</v>
+        <v>9.150849970123495</v>
       </c>
       <c r="R22" t="n">
-        <v>56.38567239618431</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S22" t="n">
         <v>173.6621429915595</v>
       </c>
       <c r="T22" t="n">
-        <v>234.4892545020035</v>
+        <v>229.0908294881276</v>
       </c>
       <c r="U22" t="n">
         <v>279.9361575053235</v>
@@ -24189,7 +24189,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>85.05783350223413</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24217,13 +24217,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>49.07594181775767</v>
       </c>
       <c r="H23" t="n">
-        <v>25.83008790892317</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,16 +24293,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24338,16 +24338,16 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
-        <v>115.3178193441572</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>155.790144806136</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>15.36192872756646</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.72498541865991</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>32.9973886313331</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>185.960966868123</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.3582426712973188</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>157.5254784647473</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>28.97906985360892</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H28" t="n">
         <v>139.2678442953623</v>
@@ -24651,19 +24651,19 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9159111551209</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -24694,7 +24694,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24733,10 +24733,10 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>25.45761031345916</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>385.4417351133833</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>81.15158819247574</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>58.58122432777904</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>20.94840386854208</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>16.40509662706721</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9159111551209</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24919,22 +24919,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>50.6904284064047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>287.8132247010298</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25004,7 +25004,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T33" t="n">
-        <v>84.46213284346643</v>
+        <v>118.8775209889507</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.27009235220248</v>
+        <v>11.31998022687166</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T34" t="n">
-        <v>97.74605927069956</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
         <v>279.9159111551209</v>
@@ -25140,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>81.77698181907041</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>285.0899515417858</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>68.50747481218878</v>
       </c>
       <c r="U35" t="n">
         <v>254.3124908149276</v>
@@ -25222,7 +25222,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,10 +25238,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.3178193441573</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
@@ -25286,10 +25286,10 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>39.30645972814512</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S37" t="n">
-        <v>144.3117656223143</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>89.68772212031138</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>101.8732158407654</v>
       </c>
       <c r="U38" t="n">
         <v>254.3124908149276</v>
@@ -25478,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>58.58122432777904</v>
+        <v>9.227102155512291</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>47.224061278221</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>32.61356009812692</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25566,7 +25566,7 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>85.27009235220248</v>
@@ -25608,7 +25608,7 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.9926196316998</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4235511641288</v>
+        <v>269.1877927847009</v>
       </c>
       <c r="H41" t="n">
         <v>285.0899515417858</v>
@@ -25681,10 +25681,10 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>188.7240531976715</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25709,22 +25709,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>67.53519850772423</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>26.45545931406218</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -25794,16 +25794,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>94.64533072653663</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>85.27009235220248</v>
@@ -25836,22 +25836,22 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S43" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
-        <v>251.3223522464798</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>343.5962588624234</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>352.7879204088775</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>82.66908986367864</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>58.58122432777904</v>
@@ -25997,19 +25997,19 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>1.091914478351526</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>89.03470250518386</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>74.31022286577463</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>134534.2032726403</v>
+        <v>134534.203272641</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>141317.8556267011</v>
+        <v>141317.8556267012</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>266711.0776143236</v>
+        <v>266711.0776143237</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>266711.0776143239</v>
+        <v>266711.0776143236</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>266711.0776143238</v>
+        <v>266711.0776143236</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>266711.0776143239</v>
+        <v>266711.0776143236</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424077.7122991998</v>
+        <v>424077.7122991997</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>424077.7122991999</v>
+        <v>424077.7122991998</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424077.7122991998</v>
+        <v>424077.7122991999</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50120.5855329444</v>
+        <v>50120.58553294473</v>
       </c>
       <c r="C2" t="n">
-        <v>52647.82856681025</v>
+        <v>52647.82856681028</v>
       </c>
       <c r="D2" t="n">
-        <v>55081.97647528963</v>
+        <v>55081.97647528964</v>
       </c>
       <c r="E2" t="n">
-        <v>99362.95048376764</v>
+        <v>99362.95048376769</v>
       </c>
       <c r="F2" t="n">
-        <v>99362.9504837678</v>
+        <v>99362.95048376768</v>
       </c>
       <c r="G2" t="n">
-        <v>99362.95048376774</v>
+        <v>99362.95048376765</v>
       </c>
       <c r="H2" t="n">
-        <v>99362.95048376771</v>
+        <v>99362.95048376769</v>
       </c>
       <c r="I2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="J2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="K2" t="n">
         <v>157989.7359546039</v>
       </c>
       <c r="L2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="M2" t="n">
         <v>157989.7359546038</v>
       </c>
       <c r="N2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="O2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="P2" t="n">
         <v>157989.7359546038</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180510.4488779349</v>
+        <v>180510.4488779362</v>
       </c>
       <c r="C3" t="n">
-        <v>10101.79231064723</v>
+        <v>10101.79231064616</v>
       </c>
       <c r="D3" t="n">
         <v>8871.778406779136</v>
       </c>
       <c r="E3" t="n">
-        <v>174858.7953097979</v>
+        <v>174858.7953097978</v>
       </c>
       <c r="F3" t="n">
-        <v>4.161736342211953e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>222021.1128848243</v>
+        <v>222021.1128848245</v>
       </c>
       <c r="J3" t="n">
-        <v>8180.779292787041</v>
+        <v>8180.779292787257</v>
       </c>
       <c r="K3" t="n">
-        <v>1611.759716562065</v>
+        <v>1611.759716561852</v>
       </c>
       <c r="L3" t="n">
         <v>1993.426436175281</v>
       </c>
       <c r="M3" t="n">
-        <v>43399.10839049726</v>
+        <v>43399.10839049722</v>
       </c>
       <c r="N3" t="n">
-        <v>1.253023924618901e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.57785121589173</v>
+        <v>21.5778512158924</v>
       </c>
       <c r="C4" t="n">
-        <v>27.19396146355786</v>
+        <v>27.19396146355793</v>
       </c>
       <c r="D4" t="n">
-        <v>32.95512399923131</v>
+        <v>32.95512399923139</v>
       </c>
       <c r="E4" t="n">
+        <v>155.6503797250001</v>
+      </c>
+      <c r="F4" t="n">
         <v>155.650379725</v>
       </c>
-      <c r="F4" t="n">
-        <v>155.6503797250003</v>
-      </c>
       <c r="G4" t="n">
-        <v>155.6503797250002</v>
+        <v>155.650379725</v>
       </c>
       <c r="H4" t="n">
-        <v>155.6503797250002</v>
+        <v>155.650379725</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26459,7 +26459,7 @@
         <v>331.9759880256581</v>
       </c>
       <c r="P4" t="n">
-        <v>331.9759880256581</v>
+        <v>331.9759880256582</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39375.29454046329</v>
+        <v>39375.29454046336</v>
       </c>
       <c r="C5" t="n">
         <v>39949.45546466367</v>
@@ -26481,13 +26481,13 @@
         <v>20886.45015162826</v>
       </c>
       <c r="F5" t="n">
-        <v>20886.4501516283</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="G5" t="n">
-        <v>20886.45015162828</v>
+        <v>20886.45015162825</v>
       </c>
       <c r="H5" t="n">
-        <v>20886.45015162828</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="I5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169786.7357366697</v>
+        <v>-171151.7671115587</v>
       </c>
       <c r="C6" t="n">
-        <v>2569.386830035801</v>
+        <v>1217.656734274482</v>
       </c>
       <c r="D6" t="n">
-        <v>5585.354834263577</v>
+        <v>4246.436043282652</v>
       </c>
       <c r="E6" t="n">
-        <v>-96537.94535738352</v>
+        <v>-97643.80639042493</v>
       </c>
       <c r="F6" t="n">
-        <v>78320.84995241408</v>
+        <v>77214.98891937283</v>
       </c>
       <c r="G6" t="n">
-        <v>78320.84995241446</v>
+        <v>77214.98891937282</v>
       </c>
       <c r="H6" t="n">
-        <v>78320.84995241443</v>
+        <v>77214.98891937284</v>
       </c>
       <c r="I6" t="n">
-        <v>-105073.4740574889</v>
+        <v>-105870.773061737</v>
       </c>
       <c r="J6" t="n">
-        <v>108766.8595345483</v>
+        <v>107969.5605303003</v>
       </c>
       <c r="K6" t="n">
-        <v>115335.8791107733</v>
+        <v>114538.5801065258</v>
       </c>
       <c r="L6" t="n">
-        <v>114954.2123911601</v>
+        <v>114156.9133869123</v>
       </c>
       <c r="M6" t="n">
-        <v>73548.53043683799</v>
+        <v>72751.23143259037</v>
       </c>
       <c r="N6" t="n">
-        <v>116947.6388273352</v>
+        <v>116150.3398230876</v>
       </c>
       <c r="O6" t="n">
-        <v>116947.6388273353</v>
+        <v>116150.3398230876</v>
       </c>
       <c r="P6" t="n">
-        <v>116947.6388273353</v>
+        <v>116150.3398230876</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.452802060676</v>
+        <v>176.452802060677</v>
       </c>
       <c r="C3" t="n">
-        <v>185.324484099487</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="D3" t="n">
-        <v>192.8268792353932</v>
+        <v>192.8268792353934</v>
       </c>
       <c r="E3" t="n">
         <v>345.7528191377621</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377625</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="G3" t="n">
-        <v>345.7528191377623</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="H3" t="n">
-        <v>345.7528191377623</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="I3" t="n">
         <v>551.5907128643867</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="C4" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="D4" t="n">
-        <v>45.40562735059398</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="E4" t="n">
+        <v>219.5565574740962</v>
+      </c>
+      <c r="F4" t="n">
+        <v>219.5565574740962</v>
+      </c>
+      <c r="G4" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="F4" t="n">
-        <v>219.5565574740966</v>
-      </c>
-      <c r="G4" t="n">
-        <v>219.5565574740965</v>
-      </c>
       <c r="H4" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I4" t="n">
+        <v>471.8000591907774</v>
+      </c>
+      <c r="J4" t="n">
         <v>471.8000591907775</v>
-      </c>
-      <c r="J4" t="n">
-        <v>471.8000591907774</v>
       </c>
       <c r="K4" t="n">
         <v>471.8000591907775</v>
       </c>
       <c r="L4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="M4" t="n">
         <v>471.8000591907775</v>
@@ -26828,10 +26828,10 @@
         <v>471.8000591907775</v>
       </c>
       <c r="O4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
       <c r="P4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.452802060676</v>
+        <v>176.452802060677</v>
       </c>
       <c r="C3" t="n">
-        <v>8.871682038811031</v>
+        <v>8.871682038810093</v>
       </c>
       <c r="D3" t="n">
         <v>7.502395135906255</v>
       </c>
       <c r="E3" t="n">
-        <v>152.9259399023689</v>
+        <v>152.9259399023688</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>205.8378937266243</v>
+        <v>205.8378937266246</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="C4" t="n">
-        <v>6.262471311748246</v>
+        <v>6.262471311747585</v>
       </c>
       <c r="D4" t="n">
         <v>7.876322888507602</v>
@@ -27023,7 +27023,7 @@
         <v>174.1509301235021</v>
       </c>
       <c r="F4" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>252.243501716681</v>
+        <v>252.2435017166812</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033802</v>
+        <v>31.26683315033884</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311748411</v>
+        <v>6.262471311747585</v>
       </c>
       <c r="L4" t="n">
         <v>7.876322888507616</v>
       </c>
       <c r="M4" t="n">
-        <v>174.1509301235023</v>
+        <v>174.1509301235021</v>
       </c>
       <c r="N4" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311748246</v>
+        <v>6.262471311747585</v>
       </c>
       <c r="L4" t="n">
         <v>7.876322888507602</v>
@@ -27269,7 +27269,7 @@
         <v>174.1509301235021</v>
       </c>
       <c r="N4" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7093579982338727</v>
+        <v>0.7093579982338769</v>
       </c>
       <c r="H2" t="n">
-        <v>7.26471259941265</v>
+        <v>7.264712599412694</v>
       </c>
       <c r="I2" t="n">
-        <v>27.3475242269114</v>
+        <v>27.34752422691157</v>
       </c>
       <c r="J2" t="n">
-        <v>60.20587340260221</v>
+        <v>60.20587340260256</v>
       </c>
       <c r="K2" t="n">
-        <v>90.23299746784205</v>
+        <v>90.23299746784259</v>
       </c>
       <c r="L2" t="n">
-        <v>111.942012306292</v>
+        <v>111.9420123062926</v>
       </c>
       <c r="M2" t="n">
-        <v>124.5570576073836</v>
+        <v>124.5570576073843</v>
       </c>
       <c r="N2" t="n">
-        <v>124.1791239069575</v>
+        <v>124.1791239069582</v>
       </c>
       <c r="O2" t="n">
-        <v>119.5188424249275</v>
+        <v>119.5188424249282</v>
       </c>
       <c r="P2" t="n">
-        <v>102.0065668435288</v>
+        <v>102.0065668435294</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.60268353177817</v>
+        <v>76.60268353177862</v>
       </c>
       <c r="R2" t="n">
-        <v>44.55920935655855</v>
+        <v>44.55920935655881</v>
       </c>
       <c r="S2" t="n">
-        <v>16.16449538475439</v>
+        <v>16.16449538475448</v>
       </c>
       <c r="T2" t="n">
-        <v>3.105214637268779</v>
+        <v>3.105214637268798</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0567486398587098</v>
+        <v>0.05674863985871014</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3795399893380578</v>
+        <v>0.37953998933806</v>
       </c>
       <c r="H3" t="n">
-        <v>3.665557265449137</v>
+        <v>3.665557265449159</v>
       </c>
       <c r="I3" t="n">
-        <v>13.06749524694629</v>
+        <v>13.06749524694637</v>
       </c>
       <c r="J3" t="n">
-        <v>35.85820574706624</v>
+        <v>35.85820574706646</v>
       </c>
       <c r="K3" t="n">
-        <v>61.28738503271611</v>
+        <v>61.28738503271647</v>
       </c>
       <c r="L3" t="n">
-        <v>82.40845250956382</v>
+        <v>80.65644832317416</v>
       </c>
       <c r="M3" t="n">
-        <v>88.83111688875556</v>
+        <v>88.8311168887563</v>
       </c>
       <c r="N3" t="n">
-        <v>64.49236588769327</v>
+        <v>84.46022654408887</v>
       </c>
       <c r="O3" t="n">
-        <v>89.01831215033813</v>
+        <v>89.01831215033887</v>
       </c>
       <c r="P3" t="n">
-        <v>72.4754914728086</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.44794670918787</v>
+        <v>48.44794670918816</v>
       </c>
       <c r="R3" t="n">
-        <v>23.56477232048047</v>
+        <v>23.56477232048061</v>
       </c>
       <c r="S3" t="n">
-        <v>7.049788837046814</v>
+        <v>7.049788837046855</v>
       </c>
       <c r="T3" t="n">
-        <v>1.529812500884539</v>
+        <v>1.529812500884548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0249697361406617</v>
+        <v>0.02496973614066185</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3181935774864648</v>
+        <v>0.3181935774864667</v>
       </c>
       <c r="H4" t="n">
-        <v>2.829030170743299</v>
+        <v>2.829030170743315</v>
       </c>
       <c r="I4" t="n">
-        <v>9.568948675683872</v>
+        <v>9.568948675683929</v>
       </c>
       <c r="J4" t="n">
-        <v>22.49628592829306</v>
+        <v>22.49628592829319</v>
       </c>
       <c r="K4" t="n">
-        <v>36.96830836615472</v>
+        <v>36.96830836615494</v>
       </c>
       <c r="L4" t="n">
-        <v>47.30670696557861</v>
+        <v>47.30670696557889</v>
       </c>
       <c r="M4" t="n">
-        <v>49.87828960544648</v>
+        <v>49.87828960544677</v>
       </c>
       <c r="N4" t="n">
-        <v>48.69229536208788</v>
+        <v>48.69229536208816</v>
       </c>
       <c r="O4" t="n">
-        <v>44.9752158432687</v>
+        <v>44.97521584326897</v>
       </c>
       <c r="P4" t="n">
-        <v>38.48406686254479</v>
+        <v>38.48406686254501</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.64437311116207</v>
+        <v>26.64437311116223</v>
       </c>
       <c r="R4" t="n">
-        <v>14.30714031134595</v>
+        <v>14.30714031134604</v>
       </c>
       <c r="S4" t="n">
-        <v>5.545246254923208</v>
+        <v>5.54524625492324</v>
       </c>
       <c r="T4" t="n">
-        <v>1.359554376533077</v>
+        <v>1.359554376533085</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01735601331744355</v>
+        <v>0.01735601331744366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7450230516562285</v>
+        <v>0.7450230516562291</v>
       </c>
       <c r="H5" t="n">
-        <v>7.629967327774352</v>
+        <v>7.629967327774358</v>
       </c>
       <c r="I5" t="n">
-        <v>28.72250119897678</v>
+        <v>28.7225011989768</v>
       </c>
       <c r="J5" t="n">
-        <v>63.23290023050789</v>
+        <v>63.23290023050792</v>
       </c>
       <c r="K5" t="n">
-        <v>94.76972600711606</v>
+        <v>94.76972600711612</v>
       </c>
       <c r="L5" t="n">
-        <v>117.5702252242404</v>
+        <v>117.5702252242405</v>
       </c>
       <c r="M5" t="n">
-        <v>130.8195289191318</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N5" t="n">
-        <v>130.4415952187057</v>
+        <v>130.4415952187058</v>
       </c>
       <c r="O5" t="n">
         <v>125.5280026947435</v>
       </c>
       <c r="P5" t="n">
-        <v>107.1352461069803</v>
+        <v>107.1352461069804</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.4541080695416</v>
+        <v>80.45410806954166</v>
       </c>
       <c r="R5" t="n">
-        <v>46.79955426860061</v>
+        <v>46.79955426860064</v>
       </c>
       <c r="S5" t="n">
-        <v>16.97721278961632</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T5" t="n">
-        <v>3.261338408625142</v>
+        <v>3.261338408625144</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05960184413249827</v>
+        <v>0.05960184413249831</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3986224752328588</v>
+        <v>0.3986224752328591</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8498539055384</v>
+        <v>3.849853905538403</v>
       </c>
       <c r="I6" t="n">
-        <v>13.72450188849975</v>
+        <v>13.72450188849976</v>
       </c>
       <c r="J6" t="n">
-        <v>37.66108218855707</v>
+        <v>37.6610821885571</v>
       </c>
       <c r="K6" t="n">
-        <v>64.36878802915861</v>
+        <v>64.36878802915865</v>
       </c>
       <c r="L6" t="n">
-        <v>86.55177910702929</v>
+        <v>62.16306937768393</v>
       </c>
       <c r="M6" t="n">
-        <v>70.70487847115844</v>
+        <v>95.09358820050389</v>
       </c>
       <c r="N6" t="n">
-        <v>90.72269785583637</v>
+        <v>90.72269785583646</v>
       </c>
       <c r="O6" t="n">
-        <v>94.84242725419689</v>
+        <v>94.84242725419695</v>
       </c>
       <c r="P6" t="n">
-        <v>76.11940932757986</v>
+        <v>76.11940932757992</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.88380929463651</v>
+        <v>50.88380929463654</v>
       </c>
       <c r="R6" t="n">
-        <v>24.74956034822961</v>
+        <v>24.74956034822963</v>
       </c>
       <c r="S6" t="n">
-        <v>7.404237643031386</v>
+        <v>7.404237643031391</v>
       </c>
       <c r="T6" t="n">
-        <v>1.606728310258759</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02622516284426704</v>
+        <v>0.02622516284426706</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3341916926384191</v>
+        <v>0.3341916926384194</v>
       </c>
       <c r="H7" t="n">
-        <v>2.97126795818522</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05005562952628</v>
+        <v>10.05005562952629</v>
       </c>
       <c r="J7" t="n">
-        <v>23.62735266953623</v>
+        <v>23.62735266953625</v>
       </c>
       <c r="K7" t="n">
-        <v>38.82699847199087</v>
+        <v>38.82699847199089</v>
       </c>
       <c r="L7" t="n">
-        <v>49.6851903764428</v>
+        <v>49.68519037644283</v>
       </c>
       <c r="M7" t="n">
-        <v>52.38606687422055</v>
+        <v>52.38606687422058</v>
       </c>
       <c r="N7" t="n">
-        <v>51.1404432925683</v>
+        <v>51.14044329256834</v>
       </c>
       <c r="O7" t="n">
-        <v>47.2364767012922</v>
+        <v>47.23647670129223</v>
       </c>
       <c r="P7" t="n">
-        <v>40.41896617146842</v>
+        <v>40.41896617146845</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.98399709902253</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R7" t="n">
         <v>15.02647374354201</v>
       </c>
       <c r="S7" t="n">
-        <v>5.82404977079863</v>
+        <v>5.824049770798633</v>
       </c>
       <c r="T7" t="n">
-        <v>1.427909959455063</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01822863778027743</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7751834341121331</v>
+        <v>0.7751834341121335</v>
       </c>
       <c r="H8" t="n">
-        <v>7.938847344600885</v>
+        <v>7.93884734460089</v>
       </c>
       <c r="I8" t="n">
-        <v>29.88525934360804</v>
+        <v>29.88525934360806</v>
       </c>
       <c r="J8" t="n">
-        <v>65.79272499097472</v>
+        <v>65.79272499097475</v>
       </c>
       <c r="K8" t="n">
-        <v>98.60623975694132</v>
+        <v>98.60623975694139</v>
       </c>
       <c r="L8" t="n">
-        <v>122.3297597786505</v>
+        <v>122.3297597786506</v>
       </c>
       <c r="M8" t="n">
-        <v>136.1154281750422</v>
+        <v>136.1154281750423</v>
       </c>
       <c r="N8" t="n">
-        <v>138.3179181072133</v>
+        <v>138.3179181072134</v>
       </c>
       <c r="O8" t="n">
-        <v>130.6096878342608</v>
+        <v>130.6096878342609</v>
       </c>
       <c r="P8" t="n">
         <v>111.4723468046175</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.71109007047667</v>
+        <v>83.71109007047671</v>
       </c>
       <c r="R8" t="n">
-        <v>48.69411639304632</v>
+        <v>48.69411639304635</v>
       </c>
       <c r="S8" t="n">
-        <v>17.66449250483025</v>
+        <v>17.66449250483026</v>
       </c>
       <c r="T8" t="n">
-        <v>3.393365482825864</v>
+        <v>3.393365482825866</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06201467472897063</v>
+        <v>0.06201467472897067</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4147597025063176</v>
+        <v>0.4147597025063178</v>
       </c>
       <c r="H9" t="n">
-        <v>4.005705547889963</v>
+        <v>4.005705547889964</v>
       </c>
       <c r="I9" t="n">
         <v>14.28010379243243</v>
       </c>
       <c r="J9" t="n">
-        <v>39.18569627933591</v>
+        <v>39.18569627933594</v>
       </c>
       <c r="K9" t="n">
-        <v>66.97459634725919</v>
+        <v>66.97459634725922</v>
       </c>
       <c r="L9" t="n">
-        <v>90.05560996743532</v>
+        <v>90.05560996743537</v>
       </c>
       <c r="M9" t="n">
-        <v>102.9699110890114</v>
+        <v>102.9699110890115</v>
       </c>
       <c r="N9" t="n">
-        <v>76.61412283241111</v>
+        <v>98.59902074434406</v>
       </c>
       <c r="O9" t="n">
-        <v>98.68188413096583</v>
+        <v>98.68188413096588</v>
       </c>
       <c r="P9" t="n">
-        <v>79.20091196368446</v>
+        <v>57.21601405175164</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.943712200631</v>
+        <v>52.94371220063103</v>
       </c>
       <c r="R9" t="n">
-        <v>25.75148398543611</v>
+        <v>25.75148398543613</v>
       </c>
       <c r="S9" t="n">
-        <v>7.703979561904622</v>
+        <v>7.703979561904626</v>
       </c>
       <c r="T9" t="n">
         <v>1.671772660540815</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02728682253331038</v>
+        <v>0.02728682253331039</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3477206018998894</v>
+        <v>0.3477206018998896</v>
       </c>
       <c r="H10" t="n">
-        <v>3.09155226052811</v>
+        <v>3.091552260528112</v>
       </c>
       <c r="I10" t="n">
-        <v>10.45690682804395</v>
+        <v>10.45690682804396</v>
       </c>
       <c r="J10" t="n">
-        <v>24.58384655432218</v>
+        <v>24.5838465543222</v>
       </c>
       <c r="K10" t="n">
-        <v>40.39881174800533</v>
+        <v>40.39881174800535</v>
       </c>
       <c r="L10" t="n">
-        <v>51.69657021337084</v>
+        <v>51.69657021337088</v>
       </c>
       <c r="M10" t="n">
-        <v>54.50678489599812</v>
+        <v>54.50678489599814</v>
       </c>
       <c r="N10" t="n">
-        <v>53.21073537982584</v>
+        <v>53.21073537982588</v>
       </c>
       <c r="O10" t="n">
-        <v>49.14872653035894</v>
+        <v>49.14872653035896</v>
       </c>
       <c r="P10" t="n">
-        <v>42.05522625160116</v>
+        <v>42.05522625160118</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.11685876454438</v>
+        <v>29.1168587645444</v>
       </c>
       <c r="R10" t="n">
-        <v>15.63478269997139</v>
+        <v>15.6347826999714</v>
       </c>
       <c r="S10" t="n">
-        <v>6.059821762200798</v>
+        <v>6.059821762200801</v>
       </c>
       <c r="T10" t="n">
-        <v>1.4857152990268</v>
+        <v>1.485715299026801</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01896657828544854</v>
+        <v>0.01896657828544855</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.389961081960853</v>
+        <v>1.389961081960851</v>
       </c>
       <c r="H14" t="n">
-        <v>14.23493893063159</v>
+        <v>14.23493893063157</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229584</v>
+        <v>53.58647461229577</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9712093800751</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K14" t="n">
-        <v>176.808261979478</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L14" t="n">
-        <v>219.3462834415375</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M14" t="n">
-        <v>244.0650038328588</v>
+        <v>244.0650038328585</v>
       </c>
       <c r="N14" t="n">
-        <v>248.0142307569801</v>
+        <v>248.0142307569798</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P14" t="n">
-        <v>199.8781410373233</v>
+        <v>199.878141037323</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.1001597896002</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>87.31214281472342</v>
       </c>
       <c r="S14" t="n">
-        <v>31.67373815518297</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T14" t="n">
-        <v>6.084554636283637</v>
+        <v>6.08455463628363</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1111968865568682</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510362</v>
+        <v>0.7436947430510354</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729746</v>
+        <v>7.182525544729738</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048524</v>
+        <v>25.60527953048521</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308058</v>
+        <v>70.26284412308051</v>
       </c>
       <c r="K15" t="n">
-        <v>120.0903919075</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4763519944805</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M15" t="n">
-        <v>188.4352864300805</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551901</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223224</v>
       </c>
       <c r="P15" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.9319815866551</v>
+        <v>94.93198158665498</v>
       </c>
       <c r="R15" t="n">
-        <v>46.17431045013365</v>
+        <v>46.1743104501336</v>
       </c>
       <c r="S15" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T15" t="n">
-        <v>2.99761170554343</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704188</v>
+        <v>0.04892728572704182</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.623488690248424</v>
+        <v>0.6234886902484233</v>
       </c>
       <c r="H16" t="n">
-        <v>5.54338126420872</v>
+        <v>5.543381264208713</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947079</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056358</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886235</v>
+        <v>72.43804964886226</v>
       </c>
       <c r="L16" t="n">
-        <v>92.6957640029339</v>
+        <v>92.69576400293379</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594158</v>
+        <v>97.73468623594147</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501573</v>
+        <v>95.41077384501561</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711364</v>
+        <v>88.12729232711354</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604573</v>
+        <v>75.40812304604565</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980213</v>
+        <v>52.20867568980207</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517004</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S16" t="n">
-        <v>10.86570744732935</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T16" t="n">
-        <v>2.663997131061448</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03400847401355044</v>
+        <v>0.0340084740135504</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.389961081960853</v>
+        <v>1.389961081960851</v>
       </c>
       <c r="H17" t="n">
-        <v>14.23493893063159</v>
+        <v>14.23493893063157</v>
       </c>
       <c r="I17" t="n">
-        <v>53.58647461229582</v>
+        <v>53.58647461229577</v>
       </c>
       <c r="J17" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K17" t="n">
-        <v>176.8082619794779</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L17" t="n">
-        <v>219.3462834415374</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M17" t="n">
-        <v>244.0650038328587</v>
+        <v>244.0650038328585</v>
       </c>
       <c r="N17" t="n">
-        <v>248.01423075698</v>
+        <v>248.0142307569798</v>
       </c>
       <c r="O17" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P17" t="n">
-        <v>199.8781410373232</v>
+        <v>199.878141037323</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.1001597896001</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472349</v>
+        <v>87.31214281472342</v>
       </c>
       <c r="S17" t="n">
-        <v>31.67373815518296</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T17" t="n">
-        <v>6.084554636283635</v>
+        <v>6.08455463628363</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1111968865568682</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.743694743051036</v>
+        <v>0.7436947430510354</v>
       </c>
       <c r="H18" t="n">
-        <v>7.182525544729744</v>
+        <v>7.182525544729738</v>
       </c>
       <c r="I18" t="n">
-        <v>25.60527953048523</v>
+        <v>25.60527953048521</v>
       </c>
       <c r="J18" t="n">
-        <v>70.26284412308057</v>
+        <v>70.26284412308051</v>
       </c>
       <c r="K18" t="n">
-        <v>120.0903919075</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M18" t="n">
-        <v>188.4352864300805</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N18" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551901</v>
       </c>
       <c r="O18" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223224</v>
       </c>
       <c r="P18" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.93198158665506</v>
+        <v>94.93198158665498</v>
       </c>
       <c r="R18" t="n">
-        <v>46.17431045013364</v>
+        <v>46.1743104501336</v>
       </c>
       <c r="S18" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T18" t="n">
-        <v>2.997611705543429</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704182</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6234886902484238</v>
+        <v>0.6234886902484233</v>
       </c>
       <c r="H19" t="n">
-        <v>5.543381264208718</v>
+        <v>5.543381264208713</v>
       </c>
       <c r="I19" t="n">
-        <v>18.75000533947079</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J19" t="n">
-        <v>44.08065040056356</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K19" t="n">
-        <v>72.43804964886232</v>
+        <v>72.43804964886226</v>
       </c>
       <c r="L19" t="n">
-        <v>92.69576400293387</v>
+        <v>92.69576400293379</v>
       </c>
       <c r="M19" t="n">
-        <v>97.73468623594155</v>
+        <v>97.73468623594147</v>
       </c>
       <c r="N19" t="n">
-        <v>95.41077384501568</v>
+        <v>95.41077384501561</v>
       </c>
       <c r="O19" t="n">
-        <v>88.12729232711361</v>
+        <v>88.12729232711354</v>
       </c>
       <c r="P19" t="n">
-        <v>75.4081230460457</v>
+        <v>75.40812304604565</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20867568980211</v>
+        <v>52.20867568980207</v>
       </c>
       <c r="R19" t="n">
-        <v>28.03431874517003</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S19" t="n">
-        <v>10.86570744732935</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T19" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03400847401355043</v>
+        <v>0.0340084740135504</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.389961081960853</v>
+        <v>1.389961081960851</v>
       </c>
       <c r="H20" t="n">
-        <v>14.23493893063159</v>
+        <v>14.23493893063157</v>
       </c>
       <c r="I20" t="n">
-        <v>53.58647461229582</v>
+        <v>53.58647461229577</v>
       </c>
       <c r="J20" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K20" t="n">
-        <v>176.8082619794779</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L20" t="n">
-        <v>219.3462834415374</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M20" t="n">
-        <v>244.0650038328587</v>
+        <v>244.0650038328585</v>
       </c>
       <c r="N20" t="n">
-        <v>248.01423075698</v>
+        <v>248.0142307569798</v>
       </c>
       <c r="O20" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P20" t="n">
-        <v>199.8781410373232</v>
+        <v>199.878141037323</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.1001597896001</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472349</v>
+        <v>87.31214281472342</v>
       </c>
       <c r="S20" t="n">
-        <v>31.67373815518296</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T20" t="n">
-        <v>6.084554636283635</v>
+        <v>6.08455463628363</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1111968865568682</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.743694743051036</v>
+        <v>0.7436947430510354</v>
       </c>
       <c r="H21" t="n">
-        <v>7.182525544729744</v>
+        <v>7.182525544729738</v>
       </c>
       <c r="I21" t="n">
-        <v>25.60527953048523</v>
+        <v>25.60527953048521</v>
       </c>
       <c r="J21" t="n">
-        <v>70.26284412308057</v>
+        <v>70.26284412308051</v>
       </c>
       <c r="K21" t="n">
-        <v>120.0903919075</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M21" t="n">
-        <v>188.4352864300805</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N21" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551901</v>
       </c>
       <c r="O21" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223224</v>
       </c>
       <c r="P21" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.93198158665506</v>
+        <v>94.93198158665498</v>
       </c>
       <c r="R21" t="n">
-        <v>46.17431045013364</v>
+        <v>46.1743104501336</v>
       </c>
       <c r="S21" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T21" t="n">
-        <v>2.997611705543429</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704182</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234886902484238</v>
+        <v>0.6234886902484233</v>
       </c>
       <c r="H22" t="n">
-        <v>5.543381264208718</v>
+        <v>5.543381264208713</v>
       </c>
       <c r="I22" t="n">
-        <v>18.75000533947079</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J22" t="n">
-        <v>44.08065040056356</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K22" t="n">
-        <v>72.43804964886232</v>
+        <v>72.43804964886226</v>
       </c>
       <c r="L22" t="n">
-        <v>92.69576400293387</v>
+        <v>92.69576400293379</v>
       </c>
       <c r="M22" t="n">
-        <v>97.73468623594155</v>
+        <v>97.73468623594147</v>
       </c>
       <c r="N22" t="n">
-        <v>95.41077384501568</v>
+        <v>95.41077384501561</v>
       </c>
       <c r="O22" t="n">
-        <v>88.12729232711361</v>
+        <v>88.12729232711354</v>
       </c>
       <c r="P22" t="n">
-        <v>75.4081230460457</v>
+        <v>75.40812304604565</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.20867568980211</v>
+        <v>52.20867568980207</v>
       </c>
       <c r="R22" t="n">
-        <v>28.03431874517003</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S22" t="n">
-        <v>10.86570744732935</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T22" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03400847401355043</v>
+        <v>0.0340084740135504</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>239.4596646988303</v>
       </c>
       <c r="R44" t="n">
-        <v>139.2918999677087</v>
+        <v>139.2918999677088</v>
       </c>
       <c r="S44" t="n">
         <v>50.53014419858177</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.09660779462493</v>
+        <v>1.09660779462547</v>
       </c>
       <c r="L2" t="n">
-        <v>16.45661424344713</v>
+        <v>16.4566142434478</v>
       </c>
       <c r="M2" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="N2" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="O2" t="n">
-        <v>26.32906679914439</v>
+        <v>26.3290667991451</v>
       </c>
       <c r="P2" t="n">
-        <v>8.3572035626446</v>
+        <v>8.357203562645211</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.461602248100718</v>
+        <v>5.46160224810108</v>
       </c>
       <c r="L3" t="n">
-        <v>26.29392869871477</v>
+        <v>24.54192451232511</v>
       </c>
       <c r="M3" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="N3" t="n">
-        <v>11.29897249394328</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="O3" t="n">
-        <v>31.26683315033813</v>
+        <v>31.26683315033888</v>
       </c>
       <c r="P3" t="n">
-        <v>18.21585647000485</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5.633336333898939</v>
+        <v>5.633336333898995</v>
       </c>
       <c r="L5" t="n">
-        <v>22.08482716139557</v>
+        <v>22.08482716139564</v>
       </c>
       <c r="M5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208647</v>
       </c>
       <c r="N5" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="O5" t="n">
-        <v>32.33822706896035</v>
+        <v>32.33822706896042</v>
       </c>
       <c r="P5" t="n">
-        <v>13.48588282609616</v>
+        <v>13.48588282609623</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.543005244543217</v>
+        <v>8.543005244543259</v>
       </c>
       <c r="L6" t="n">
-        <v>30.43725529618024</v>
+        <v>6.048545566834875</v>
       </c>
       <c r="M6" t="n">
-        <v>13.14059473274101</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N6" t="n">
-        <v>37.52930446208639</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="O6" t="n">
-        <v>37.0909482541969</v>
+        <v>37.09094825419695</v>
       </c>
       <c r="P6" t="n">
-        <v>21.85977432477611</v>
+        <v>21.85977432477617</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.469850083724197</v>
+        <v>9.469850083724268</v>
       </c>
       <c r="L8" t="n">
-        <v>26.84436171580572</v>
+        <v>26.84436171580579</v>
       </c>
       <c r="M8" t="n">
-        <v>42.82520371799673</v>
+        <v>42.82520371799681</v>
       </c>
       <c r="N8" t="n">
-        <v>45.40562735059397</v>
+        <v>45.40562735059406</v>
       </c>
       <c r="O8" t="n">
-        <v>37.41991220847764</v>
+        <v>37.41991220847773</v>
       </c>
       <c r="P8" t="n">
-        <v>17.8229835237333</v>
+        <v>17.82298352373337</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>11.1488135626438</v>
+        <v>11.14881356264383</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94108615658627</v>
+        <v>33.94108615658632</v>
       </c>
       <c r="M9" t="n">
-        <v>45.40562735059398</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="N9" t="n">
-        <v>23.42072943866112</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="O9" t="n">
-        <v>40.93040513096583</v>
+        <v>40.93040513096589</v>
       </c>
       <c r="P9" t="n">
-        <v>24.94127696088071</v>
+        <v>2.956379048947898</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4980898714064</v>
+        <v>1.498089871406435</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676711</v>
+        <v>44.64761804676698</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626088</v>
+        <v>87.67187230626068</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8608853786927</v>
+        <v>123.8608853786924</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758134</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003608</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O14" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P14" t="n">
-        <v>106.2287777564391</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.06635539044814</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.89360532308057</v>
+        <v>18.8936053230805</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288462</v>
+        <v>64.26460912288448</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836312</v>
       </c>
       <c r="M15" t="n">
-        <v>130.8710026916631</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614401</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223224</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945949</v>
+        <v>87.75344272945932</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181638</v>
+        <v>38.23936308181626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.18768008979552</v>
+        <v>20.18768008979544</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903239</v>
+        <v>38.06747010903228</v>
       </c>
       <c r="M16" t="n">
-        <v>41.46974373716154</v>
+        <v>41.46974373716142</v>
       </c>
       <c r="N16" t="n">
-        <v>43.69812833659628</v>
+        <v>43.69812833659617</v>
       </c>
       <c r="O16" t="n">
-        <v>32.05239425411731</v>
+        <v>32.05239425411721</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62828140614095</v>
+        <v>19.62828140614086</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.64761804676708</v>
+        <v>44.64761804676698</v>
       </c>
       <c r="K17" t="n">
-        <v>87.67187230626082</v>
+        <v>87.67187230626068</v>
       </c>
       <c r="L17" t="n">
-        <v>123.8608853786926</v>
+        <v>123.8608853786924</v>
       </c>
       <c r="M17" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N17" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O17" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P17" t="n">
-        <v>106.2287777564391</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.06635539044808</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.89360532308056</v>
+        <v>18.8936053230805</v>
       </c>
       <c r="K18" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288448</v>
       </c>
       <c r="L18" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836312</v>
       </c>
       <c r="M18" t="n">
-        <v>130.871002691663</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N18" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614401</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223224</v>
       </c>
       <c r="P18" t="n">
-        <v>87.75344272945944</v>
+        <v>87.75344272945932</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.23936308181634</v>
+        <v>38.23936308181626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.18768008979549</v>
+        <v>20.18768008979544</v>
       </c>
       <c r="L19" t="n">
-        <v>38.06747010903236</v>
+        <v>38.06747010903228</v>
       </c>
       <c r="M19" t="n">
-        <v>41.46974373716151</v>
+        <v>41.46974373716142</v>
       </c>
       <c r="N19" t="n">
-        <v>43.69812833659624</v>
+        <v>43.69812833659617</v>
       </c>
       <c r="O19" t="n">
-        <v>32.05239425411728</v>
+        <v>32.05239425411721</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62828140614092</v>
+        <v>19.62828140614086</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.64761804676708</v>
+        <v>44.64761804676698</v>
       </c>
       <c r="K20" t="n">
-        <v>87.67187230626082</v>
+        <v>87.67187230626068</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8608853786926</v>
+        <v>123.8608853786924</v>
       </c>
       <c r="M20" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N20" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O20" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P20" t="n">
-        <v>106.2287777564391</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.06635539044808</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.89360532308056</v>
+        <v>18.8936053230805</v>
       </c>
       <c r="K21" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288448</v>
       </c>
       <c r="L21" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836312</v>
       </c>
       <c r="M21" t="n">
-        <v>130.871002691663</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N21" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614401</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223224</v>
       </c>
       <c r="P21" t="n">
-        <v>87.75344272945944</v>
+        <v>87.75344272945932</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.23936308181634</v>
+        <v>38.23936308181626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.18768008979549</v>
+        <v>20.18768008979544</v>
       </c>
       <c r="L22" t="n">
-        <v>38.06747010903236</v>
+        <v>38.06747010903228</v>
       </c>
       <c r="M22" t="n">
-        <v>41.46974373716151</v>
+        <v>41.46974373716142</v>
       </c>
       <c r="N22" t="n">
-        <v>43.69812833659624</v>
+        <v>43.69812833659617</v>
       </c>
       <c r="O22" t="n">
-        <v>32.05239425411728</v>
+        <v>32.05239425411721</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62828140614092</v>
+        <v>19.62828140614086</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>149.4258602996782</v>
       </c>
       <c r="R44" t="n">
-        <v>51.97975715298516</v>
+        <v>51.97975715298531</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
